--- a/EC/Train Runs 2016-05-16 (FRA Format).xlsx
+++ b/EC/Train Runs 2016-05-16 (FRA Format).xlsx
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="1811">
   <si>
     <t>Train ID</t>
   </si>
@@ -5326,6 +5326,417 @@
   </si>
   <si>
     <t>PTC Run Count (2016-05-16)</t>
+  </si>
+  <si>
+    <t>101-16</t>
+  </si>
+  <si>
+    <t>102-16</t>
+  </si>
+  <si>
+    <t>103-16</t>
+  </si>
+  <si>
+    <t>104-16</t>
+  </si>
+  <si>
+    <t>105-16</t>
+  </si>
+  <si>
+    <t>106-16</t>
+  </si>
+  <si>
+    <t>107-16</t>
+  </si>
+  <si>
+    <t>108-16</t>
+  </si>
+  <si>
+    <t>109-16</t>
+  </si>
+  <si>
+    <t>110-16</t>
+  </si>
+  <si>
+    <t>111-16</t>
+  </si>
+  <si>
+    <t>112-16</t>
+  </si>
+  <si>
+    <t>113-16</t>
+  </si>
+  <si>
+    <t>114-16</t>
+  </si>
+  <si>
+    <t>115-16</t>
+  </si>
+  <si>
+    <t>116-16</t>
+  </si>
+  <si>
+    <t>117-16</t>
+  </si>
+  <si>
+    <t>118-16</t>
+  </si>
+  <si>
+    <t>119-16</t>
+  </si>
+  <si>
+    <t>120-16</t>
+  </si>
+  <si>
+    <t>121-16</t>
+  </si>
+  <si>
+    <t>122-16</t>
+  </si>
+  <si>
+    <t>123-16</t>
+  </si>
+  <si>
+    <t>124-16</t>
+  </si>
+  <si>
+    <t>125-16</t>
+  </si>
+  <si>
+    <t>126-16</t>
+  </si>
+  <si>
+    <t>127-16</t>
+  </si>
+  <si>
+    <t>128-16</t>
+  </si>
+  <si>
+    <t>129-16</t>
+  </si>
+  <si>
+    <t>130-16</t>
+  </si>
+  <si>
+    <t>131-16</t>
+  </si>
+  <si>
+    <t>132-16</t>
+  </si>
+  <si>
+    <t>133-16</t>
+  </si>
+  <si>
+    <t>134-16</t>
+  </si>
+  <si>
+    <t>135-16</t>
+  </si>
+  <si>
+    <t>136-16</t>
+  </si>
+  <si>
+    <t>137-16</t>
+  </si>
+  <si>
+    <t>138-16</t>
+  </si>
+  <si>
+    <t>139-16</t>
+  </si>
+  <si>
+    <t>140-16</t>
+  </si>
+  <si>
+    <t>141-16</t>
+  </si>
+  <si>
+    <t>142-16</t>
+  </si>
+  <si>
+    <t>143-16</t>
+  </si>
+  <si>
+    <t>144-16</t>
+  </si>
+  <si>
+    <t>145-16</t>
+  </si>
+  <si>
+    <t>146-16</t>
+  </si>
+  <si>
+    <t>147-16</t>
+  </si>
+  <si>
+    <t>148-16</t>
+  </si>
+  <si>
+    <t>149-16</t>
+  </si>
+  <si>
+    <t>150-16</t>
+  </si>
+  <si>
+    <t>151-16</t>
+  </si>
+  <si>
+    <t>152-16</t>
+  </si>
+  <si>
+    <t>153-16</t>
+  </si>
+  <si>
+    <t>154-16</t>
+  </si>
+  <si>
+    <t>155-16</t>
+  </si>
+  <si>
+    <t>156-16</t>
+  </si>
+  <si>
+    <t>157-16</t>
+  </si>
+  <si>
+    <t>158-16</t>
+  </si>
+  <si>
+    <t>159-16</t>
+  </si>
+  <si>
+    <t>160-16</t>
+  </si>
+  <si>
+    <t>161-16</t>
+  </si>
+  <si>
+    <t>162-16</t>
+  </si>
+  <si>
+    <t>163-16</t>
+  </si>
+  <si>
+    <t>164-16</t>
+  </si>
+  <si>
+    <t>165-16</t>
+  </si>
+  <si>
+    <t>166-16</t>
+  </si>
+  <si>
+    <t>167-16</t>
+  </si>
+  <si>
+    <t>168-16</t>
+  </si>
+  <si>
+    <t>169-16</t>
+  </si>
+  <si>
+    <t>170-16</t>
+  </si>
+  <si>
+    <t>171-16</t>
+  </si>
+  <si>
+    <t>172-16</t>
+  </si>
+  <si>
+    <t>173-16</t>
+  </si>
+  <si>
+    <t>174-16</t>
+  </si>
+  <si>
+    <t>175-16</t>
+  </si>
+  <si>
+    <t>176-16</t>
+  </si>
+  <si>
+    <t>177-16</t>
+  </si>
+  <si>
+    <t>178-16</t>
+  </si>
+  <si>
+    <t>179-16</t>
+  </si>
+  <si>
+    <t>180-16</t>
+  </si>
+  <si>
+    <t>181-16</t>
+  </si>
+  <si>
+    <t>182-16</t>
+  </si>
+  <si>
+    <t>183-16</t>
+  </si>
+  <si>
+    <t>184-16</t>
+  </si>
+  <si>
+    <t>185-16</t>
+  </si>
+  <si>
+    <t>186-16</t>
+  </si>
+  <si>
+    <t>187-16</t>
+  </si>
+  <si>
+    <t>188-16</t>
+  </si>
+  <si>
+    <t>190-16</t>
+  </si>
+  <si>
+    <t>191-16</t>
+  </si>
+  <si>
+    <t>192-16</t>
+  </si>
+  <si>
+    <t>193-16</t>
+  </si>
+  <si>
+    <t>194-16</t>
+  </si>
+  <si>
+    <t>195-16</t>
+  </si>
+  <si>
+    <t>196-16</t>
+  </si>
+  <si>
+    <t>197-16</t>
+  </si>
+  <si>
+    <t>198-16</t>
+  </si>
+  <si>
+    <t>199-16</t>
+  </si>
+  <si>
+    <t>200-16</t>
+  </si>
+  <si>
+    <t>201-16</t>
+  </si>
+  <si>
+    <t>202-16</t>
+  </si>
+  <si>
+    <t>203-16</t>
+  </si>
+  <si>
+    <t>204-16</t>
+  </si>
+  <si>
+    <t>205-16</t>
+  </si>
+  <si>
+    <t>206-16</t>
+  </si>
+  <si>
+    <t>207-16</t>
+  </si>
+  <si>
+    <t>208-16</t>
+  </si>
+  <si>
+    <t>209-16</t>
+  </si>
+  <si>
+    <t>210-16</t>
+  </si>
+  <si>
+    <t>211-16</t>
+  </si>
+  <si>
+    <t>212-16</t>
+  </si>
+  <si>
+    <t>213-16</t>
+  </si>
+  <si>
+    <t>214-16</t>
+  </si>
+  <si>
+    <t>215-16</t>
+  </si>
+  <si>
+    <t>216-16</t>
+  </si>
+  <si>
+    <t>217-16</t>
+  </si>
+  <si>
+    <t>218-16</t>
+  </si>
+  <si>
+    <t>219-16</t>
+  </si>
+  <si>
+    <t>220-16</t>
+  </si>
+  <si>
+    <t>221-16</t>
+  </si>
+  <si>
+    <t>222-16</t>
+  </si>
+  <si>
+    <t>223-16</t>
+  </si>
+  <si>
+    <t>224-16</t>
+  </si>
+  <si>
+    <t>225-16</t>
+  </si>
+  <si>
+    <t>226-16</t>
+  </si>
+  <si>
+    <t>227-16</t>
+  </si>
+  <si>
+    <t>228-16</t>
+  </si>
+  <si>
+    <t>229-16</t>
+  </si>
+  <si>
+    <t>230-16</t>
+  </si>
+  <si>
+    <t>231-16</t>
+  </si>
+  <si>
+    <t>233-16</t>
+  </si>
+  <si>
+    <t>235-16</t>
+  </si>
+  <si>
+    <t>237-16</t>
+  </si>
+  <si>
+    <t>Routing at Bright</t>
+  </si>
+  <si>
+    <t>Enforced by Construction Bulletin, ran ATC for remainder of trip to keep schedule</t>
+  </si>
+  <si>
+    <t>First init attempt was at 38th</t>
+  </si>
+  <si>
+    <t>Routing at DUS Signal 2N</t>
   </si>
 </sst>
 </file>
@@ -5855,7 +6266,56 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="201">
+  <dxfs count="220">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7263,6 +7723,90 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7498,11 +8042,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11318,42 +11862,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A144:G171 C3:D143 F3:G143">
-    <cfRule type="expression" dxfId="90" priority="10">
+    <cfRule type="expression" dxfId="97" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="11">
+    <cfRule type="expression" dxfId="96" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="12">
+    <cfRule type="expression" dxfId="95" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A3:B84 A86:B143 E3:E143">
-    <cfRule type="expression" dxfId="87" priority="8">
+    <cfRule type="expression" dxfId="94" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="9">
+    <cfRule type="expression" dxfId="93" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A3:D84 A86:D143 F3:G143">
-    <cfRule type="expression" dxfId="85" priority="6">
+    <cfRule type="expression" dxfId="92" priority="6">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="84" priority="3">
+    <cfRule type="expression" dxfId="91" priority="3">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="4">
+    <cfRule type="expression" dxfId="90" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="5">
+    <cfRule type="expression" dxfId="89" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="88" priority="2">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14831,50 +15375,50 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G162">
-    <cfRule type="expression" dxfId="78" priority="33">
+    <cfRule type="expression" dxfId="85" priority="33">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="34">
+    <cfRule type="expression" dxfId="84" priority="34">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="35">
+    <cfRule type="expression" dxfId="83" priority="35">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G162">
-    <cfRule type="expression" dxfId="75" priority="29">
+    <cfRule type="expression" dxfId="82" priority="29">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B5 A89:B90 A103:B103 A121:B121 A113:B113">
-    <cfRule type="expression" dxfId="74" priority="54">
+    <cfRule type="expression" dxfId="81" priority="54">
       <formula>$P4&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="55">
+    <cfRule type="expression" dxfId="80" priority="55">
       <formula>$O4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B87 A91:B101 A124:B162 A104:B111 A114:B119">
-    <cfRule type="expression" dxfId="72" priority="69">
+    <cfRule type="expression" dxfId="79" priority="69">
       <formula>$P8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="70">
+    <cfRule type="expression" dxfId="78" priority="70">
       <formula>$O8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:B88 A102:B102 A120:B120 A122:B123">
-    <cfRule type="expression" dxfId="70" priority="87">
+    <cfRule type="expression" dxfId="77" priority="87">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="88">
+    <cfRule type="expression" dxfId="76" priority="88">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B112">
-    <cfRule type="expression" dxfId="68" priority="109">
+    <cfRule type="expression" dxfId="75" priority="109">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="110">
+    <cfRule type="expression" dxfId="74" priority="110">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18437,26 +18981,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A165:G169 C3:G164">
-    <cfRule type="expression" dxfId="62" priority="25">
+    <cfRule type="expression" dxfId="69" priority="25">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="26">
+    <cfRule type="expression" dxfId="68" priority="26">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="27">
+    <cfRule type="expression" dxfId="67" priority="27">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B164">
-    <cfRule type="expression" dxfId="59" priority="23">
+    <cfRule type="expression" dxfId="66" priority="23">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="24">
+    <cfRule type="expression" dxfId="65" priority="24">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G164">
-    <cfRule type="expression" dxfId="57" priority="21">
+    <cfRule type="expression" dxfId="64" priority="21">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21872,82 +22416,82 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A155:G159 C3:G154">
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="62" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="6">
+    <cfRule type="expression" dxfId="61" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="7">
+    <cfRule type="expression" dxfId="60" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="52" priority="3">
+    <cfRule type="expression" dxfId="59" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G154">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B110">
-    <cfRule type="expression" dxfId="49" priority="141">
+    <cfRule type="expression" dxfId="56" priority="141">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="142">
+    <cfRule type="expression" dxfId="55" priority="142">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26">
-    <cfRule type="expression" dxfId="47" priority="153">
+    <cfRule type="expression" dxfId="54" priority="153">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="154">
+    <cfRule type="expression" dxfId="53" priority="154">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:B128">
-    <cfRule type="expression" dxfId="45" priority="166">
+    <cfRule type="expression" dxfId="52" priority="166">
       <formula>$P115&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="167">
+    <cfRule type="expression" dxfId="51" priority="167">
       <formula>$O115&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B131">
-    <cfRule type="expression" dxfId="43" priority="180">
+    <cfRule type="expression" dxfId="50" priority="180">
       <formula>$P136&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="181">
+    <cfRule type="expression" dxfId="49" priority="181">
       <formula>$O136&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:B132">
-    <cfRule type="expression" dxfId="41" priority="194">
+    <cfRule type="expression" dxfId="48" priority="194">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="195">
+    <cfRule type="expression" dxfId="47" priority="195">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B133">
-    <cfRule type="expression" dxfId="39" priority="208">
+    <cfRule type="expression" dxfId="46" priority="208">
       <formula>$P142&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="209">
+    <cfRule type="expression" dxfId="45" priority="209">
       <formula>$O142&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:B154">
-    <cfRule type="expression" dxfId="37" priority="222">
+    <cfRule type="expression" dxfId="44" priority="222">
       <formula>$P144&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="223">
+    <cfRule type="expression" dxfId="43" priority="223">
       <formula>$O144&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22068,10 +22612,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM159"/>
+  <dimension ref="A1:BM157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22185,22 +22729,24 @@
     </row>
     <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1371</v>
+        <v>1674</v>
       </c>
       <c r="B3" s="6">
-        <v>4014</v>
+        <v>4011</v>
       </c>
       <c r="C3" s="18">
-        <v>42505.125902777778</v>
+        <v>42506.127534722225</v>
       </c>
       <c r="D3" s="18">
-        <v>42505.160474537035</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>28</v>
+        <v>42506.160636574074</v>
+      </c>
+      <c r="E3" s="15" t="str">
+        <f>IF(ISEVEN(B3),(B3-1)&amp;"/"&amp;B3,B3&amp;"/"&amp;(B3+1))</f>
+        <v>4011/4012</v>
       </c>
       <c r="F3" s="15">
-        <v>3.457175925723277E-2</v>
+        <f>D3-C3</f>
+        <v>3.3101851848186925E-2</v>
       </c>
       <c r="G3" s="10"/>
       <c r="J3" s="21">
@@ -22215,22 +22761,24 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1523</v>
+        <v>1675</v>
       </c>
       <c r="B4" s="6">
-        <v>4032</v>
+        <v>4019</v>
       </c>
       <c r="C4" s="18">
-        <v>42505.171087962961</v>
+        <v>42506.169398148151</v>
       </c>
       <c r="D4" s="18">
-        <v>42505.203321759262</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>33</v>
+        <v>42506.200185185182</v>
+      </c>
+      <c r="E4" s="15" t="str">
+        <f t="shared" ref="E4:E67" si="0">IF(ISEVEN(B4),(B4-1)&amp;"/"&amp;B4,B4&amp;"/"&amp;(B4+1))</f>
+        <v>4019/4020</v>
       </c>
       <c r="F4" s="15">
-        <v>3.2233796300715767E-2</v>
+        <f>D4-C4</f>
+        <v>3.0787037030677311E-2</v>
       </c>
       <c r="G4" s="10"/>
       <c r="J4" s="29"/>
@@ -22248,19 +22796,33 @@
       </c>
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4031</v>
+      </c>
+      <c r="C5" s="18">
+        <v>42506.153738425928</v>
+      </c>
+      <c r="D5" s="18">
+        <v>42506.181840277779</v>
+      </c>
+      <c r="E5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" ref="F5:F68" si="1">D5-C5</f>
+        <v>2.810185185080627E-2</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="J5" s="23" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="25">
-        <f>COUNTA(F3:F975)</f>
-        <v>2</v>
+        <f>COUNTA(F3:F973)</f>
+        <v>133</v>
       </c>
       <c r="L5" s="25" t="s">
         <v>8</v>
@@ -22273,44 +22835,72 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="6" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4010</v>
+      </c>
+      <c r="C6" s="18">
+        <v>42506.19390046296</v>
+      </c>
+      <c r="D6" s="18">
+        <v>42506.221620370372</v>
+      </c>
+      <c r="E6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="1"/>
+        <v>2.771990741166519E-2</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="J6" s="23" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="25">
         <f>K5-SUM(K8:K9)</f>
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="L6" s="26">
-        <v>42.673591549260685</v>
+        <v>44.154761904593265</v>
       </c>
       <c r="M6" s="26">
-        <v>35.66666666418314</v>
+        <v>35.399999998044223</v>
       </c>
       <c r="N6" s="26">
-        <v>57.20000000204891</v>
+        <v>76.633333330973983</v>
       </c>
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="6" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4040</v>
+      </c>
+      <c r="C7" s="18">
+        <v>42506.17046296296</v>
+      </c>
+      <c r="D7" s="18">
+        <v>42506.203263888892</v>
+      </c>
+      <c r="E7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2800925931951497E-2</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="30">
         <f>K6/K5</f>
-        <v>1</v>
+        <v>0.95488721804511278</v>
       </c>
       <c r="L7" s="27" t="s">
         <v>8</v>
@@ -22323,19 +22913,33 @@
       </c>
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="6" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4043</v>
+      </c>
+      <c r="C8" s="18">
+        <v>42506.212222222224</v>
+      </c>
+      <c r="D8" s="18">
+        <v>42506.241701388892</v>
+      </c>
+      <c r="E8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4043/4044</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9479166667442769E-2</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="J8" s="23" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="25">
         <f>COUNTA(G3:G999)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>8</v>
@@ -22348,12 +22952,26 @@
       </c>
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="A9" s="6" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4024</v>
+      </c>
+      <c r="C9" s="18">
+        <v>42506.179988425924</v>
+      </c>
+      <c r="D9" s="18">
+        <v>42506.212650462963</v>
+      </c>
+      <c r="E9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2662037039699499E-2</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="J9" s="24" t="s">
         <v>17</v>
@@ -22372,1137 +22990,2911 @@
       </c>
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4023</v>
+      </c>
+      <c r="C10" s="18">
+        <v>42506.218043981484</v>
+      </c>
+      <c r="D10" s="18">
+        <v>42506.252187500002</v>
+      </c>
+      <c r="E10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="1"/>
+        <v>3.4143518518249039E-2</v>
+      </c>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="A11" s="6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4016</v>
+      </c>
+      <c r="C11" s="18">
+        <v>42506.195729166669</v>
+      </c>
+      <c r="D11" s="18">
+        <v>42506.223495370374</v>
+      </c>
+      <c r="E11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
+        <v>2.7766203704231884E-2</v>
+      </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="A12" s="6" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4015</v>
+      </c>
+      <c r="C12" s="18">
+        <v>42506.235601851855</v>
+      </c>
+      <c r="D12" s="18">
+        <v>42506.262256944443</v>
+      </c>
+      <c r="E12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="1"/>
+        <v>2.6655092588043772E-2</v>
+      </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="6" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4011</v>
+      </c>
+      <c r="C13" s="18">
+        <v>42506.205833333333</v>
+      </c>
+      <c r="D13" s="18">
+        <v>42506.233368055553</v>
+      </c>
+      <c r="E13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="1"/>
+        <v>2.753472221957054E-2</v>
+      </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="A14" s="6" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4012</v>
+      </c>
+      <c r="C14" s="18">
+        <v>42506.23978009259</v>
+      </c>
+      <c r="D14" s="18">
+        <v>42506.273425925923</v>
+      </c>
+      <c r="E14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="1"/>
+        <v>3.3645833333139308E-2</v>
+      </c>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="A15" s="6" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4020</v>
+      </c>
+      <c r="C15" s="18">
+        <v>42506.212106481478</v>
+      </c>
+      <c r="D15" s="18">
+        <v>42506.243750000001</v>
+      </c>
+      <c r="E15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="1"/>
+        <v>3.164351852319669E-2</v>
+      </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4019</v>
+      </c>
+      <c r="C16" s="18">
+        <v>42506.255162037036</v>
+      </c>
+      <c r="D16" s="18">
+        <v>42506.282881944448</v>
+      </c>
+      <c r="E16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="1"/>
+        <v>2.771990741166519E-2</v>
+      </c>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="A17" s="6" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4031</v>
+      </c>
+      <c r="C17" s="18">
+        <v>42506.225057870368</v>
+      </c>
+      <c r="D17" s="18">
+        <v>42506.253680555557</v>
+      </c>
+      <c r="E17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8622685189475305E-2</v>
+      </c>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="A18" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4032</v>
+      </c>
+      <c r="C18" s="18">
+        <v>42506.2655787037</v>
+      </c>
+      <c r="D18" s="18">
+        <v>42506.293668981481</v>
+      </c>
+      <c r="E18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8090277781302575E-2</v>
+      </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="6" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4009</v>
+      </c>
+      <c r="C19" s="18">
+        <v>42506.232349537036</v>
+      </c>
+      <c r="D19" s="18">
+        <v>42506.265497685185</v>
+      </c>
+      <c r="E19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="1"/>
+        <v>3.3148148148029577E-2</v>
+      </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="A20" s="6" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4010</v>
+      </c>
+      <c r="C20" s="18">
+        <v>42506.274351851855</v>
+      </c>
+      <c r="D20" s="18">
+        <v>42506.304560185185</v>
+      </c>
+      <c r="E20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0208333329937886E-2</v>
+      </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="A21" s="6" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4040</v>
+      </c>
+      <c r="C21" s="18">
+        <v>42506.249791666669</v>
+      </c>
+      <c r="D21" s="18">
+        <v>42506.274930555555</v>
+      </c>
+      <c r="E21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="1"/>
+        <v>2.5138888886431232E-2</v>
+      </c>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="A22" s="6" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4039</v>
+      </c>
+      <c r="C22" s="18">
+        <v>42506.288148148145</v>
+      </c>
+      <c r="D22" s="18">
+        <v>42506.314282407409</v>
+      </c>
+      <c r="E22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="1"/>
+        <v>2.6134259263926651E-2</v>
+      </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="A23" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4024</v>
+      </c>
+      <c r="C23" s="18">
+        <v>42506.255162037036</v>
+      </c>
+      <c r="D23" s="18">
+        <v>42506.285613425927</v>
+      </c>
+      <c r="E23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0451388891378883E-2</v>
+      </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="A24" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4023</v>
+      </c>
+      <c r="C24" s="18">
+        <v>42506.290902777779</v>
+      </c>
+      <c r="D24" s="18">
+        <v>42506.325358796297</v>
+      </c>
+      <c r="E24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="1"/>
+        <v>3.4456018518540077E-2</v>
+      </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B25" s="6">
+        <v>4016</v>
+      </c>
+      <c r="C25" s="18">
+        <v>42506.265717592592</v>
+      </c>
+      <c r="D25" s="18">
+        <v>42506.295995370368</v>
+      </c>
+      <c r="E25" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0277777776063886E-2</v>
+      </c>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B26" s="6">
+        <v>4015</v>
+      </c>
+      <c r="C26" s="18">
+        <v>42506.307384259257</v>
+      </c>
+      <c r="D26" s="18">
+        <v>42506.335625</v>
+      </c>
+      <c r="E26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8240740743058268E-2</v>
+      </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B27" s="6">
+        <v>4011</v>
+      </c>
+      <c r="C27" s="18">
+        <v>42506.27652777778</v>
+      </c>
+      <c r="D27" s="18">
+        <v>42506.306944444441</v>
+      </c>
+      <c r="E27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0416666661039926E-2</v>
+      </c>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="6" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B28" s="6">
+        <v>4012</v>
+      </c>
+      <c r="C28" s="18">
+        <v>42506.315509259257</v>
+      </c>
+      <c r="D28" s="18">
+        <v>42506.346446759257</v>
+      </c>
+      <c r="E28" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0937499999708962E-2</v>
+      </c>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4020</v>
+      </c>
+      <c r="C29" s="18">
+        <v>42506.288877314815</v>
+      </c>
+      <c r="D29" s="18">
+        <v>42506.316342592596</v>
+      </c>
+      <c r="E29" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="1"/>
+        <v>2.7465277780720498E-2</v>
+      </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="6" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4019</v>
+      </c>
+      <c r="C30" s="18">
+        <v>42506.323564814818</v>
+      </c>
+      <c r="D30" s="18">
+        <v>42506.356053240743</v>
+      </c>
+      <c r="E30" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2488425924384501E-2</v>
+      </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B31" s="6">
+        <v>4031</v>
+      </c>
+      <c r="C31" s="18">
+        <v>42506.301388888889</v>
+      </c>
+      <c r="D31" s="18">
+        <v>42506.327268518522</v>
+      </c>
+      <c r="E31" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="1"/>
+        <v>2.587962963298196E-2</v>
+      </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="6" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B32" s="6">
+        <v>4032</v>
+      </c>
+      <c r="C32" s="18">
+        <v>42506.34175925926</v>
+      </c>
+      <c r="D32" s="18">
+        <v>42506.366342592592</v>
+      </c>
+      <c r="E32" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4583333331975155E-2</v>
+      </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B33" s="6">
+        <v>4009</v>
+      </c>
+      <c r="C33" s="18">
+        <v>42506.307569444441</v>
+      </c>
+      <c r="D33" s="18">
+        <v>42506.337442129632</v>
+      </c>
+      <c r="E33" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9872685190639459E-2</v>
+      </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B34" s="6">
+        <v>4010</v>
+      </c>
+      <c r="C34" s="18">
+        <v>42506.344178240739</v>
+      </c>
+      <c r="D34" s="18">
+        <v>42506.37736111111</v>
+      </c>
+      <c r="E34" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="1"/>
+        <v>3.3182870371092577E-2</v>
+      </c>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="A35" s="6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B35" s="6">
+        <v>4040</v>
+      </c>
+      <c r="C35" s="18">
+        <v>42506.316944444443</v>
+      </c>
+      <c r="D35" s="18">
+        <v>42506.349050925928</v>
+      </c>
+      <c r="E35" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2106481485243421E-2</v>
+      </c>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B36" s="6">
+        <v>4039</v>
+      </c>
+      <c r="C36" s="18">
+        <v>42506.355497685188</v>
+      </c>
+      <c r="D36" s="18">
+        <v>42506.387719907405</v>
+      </c>
+      <c r="E36" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2222222216660157E-2</v>
+      </c>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B37" s="6">
+        <v>4024</v>
+      </c>
+      <c r="C37" s="18">
+        <v>42506.328067129631</v>
+      </c>
+      <c r="D37" s="18">
+        <v>42506.358124999999</v>
+      </c>
+      <c r="E37" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0057870368182193E-2</v>
+      </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="A38" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4023</v>
+      </c>
+      <c r="C38" s="18">
+        <v>42506.365555555552</v>
+      </c>
+      <c r="D38" s="18">
+        <v>42506.397905092592</v>
+      </c>
+      <c r="E38" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="1"/>
+        <v>3.234953703940846E-2</v>
+      </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="A39" s="6" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B39" s="6">
+        <v>4016</v>
+      </c>
+      <c r="C39" s="18">
+        <v>42506.33902777778</v>
+      </c>
+      <c r="D39" s="18">
+        <v>42506.369155092594</v>
+      </c>
+      <c r="E39" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0127314814308193E-2</v>
+      </c>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="A40" s="6" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B40" s="6">
+        <v>4015</v>
+      </c>
+      <c r="C40" s="18">
+        <v>42506.382881944446</v>
+      </c>
+      <c r="D40" s="18">
+        <v>42506.408310185187</v>
+      </c>
+      <c r="E40" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" si="1"/>
+        <v>2.5428240740438923E-2</v>
+      </c>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="A41" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B41" s="6">
+        <v>4011</v>
+      </c>
+      <c r="C41" s="18">
+        <v>42506.35255787037</v>
+      </c>
+      <c r="D41" s="18">
+        <v>42506.378819444442</v>
+      </c>
+      <c r="E41" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="1"/>
+        <v>2.626157407212304E-2</v>
+      </c>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="A42" s="6" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B42" s="6">
+        <v>4012</v>
+      </c>
+      <c r="C42" s="18">
+        <v>42506.389618055553</v>
+      </c>
+      <c r="D42" s="18">
+        <v>42506.419282407405</v>
+      </c>
+      <c r="E42" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9664351852261461E-2</v>
+      </c>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="A43" s="6" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B43" s="6">
+        <v>4020</v>
+      </c>
+      <c r="C43" s="18">
+        <v>42506.36246527778</v>
+      </c>
+      <c r="D43" s="18">
+        <v>42506.389710648145</v>
+      </c>
+      <c r="E43" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="1"/>
+        <v>2.7245370365562849E-2</v>
+      </c>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="A44" s="6" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B44" s="6">
+        <v>4019</v>
+      </c>
+      <c r="C44" s="18">
+        <v>42506.395949074074</v>
+      </c>
+      <c r="D44" s="18">
+        <v>42506.428935185184</v>
+      </c>
+      <c r="E44" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2986111109494232E-2</v>
+      </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="A45" s="6" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B45" s="6">
+        <v>4031</v>
+      </c>
+      <c r="C45" s="18">
+        <v>42506.374409722222</v>
+      </c>
+      <c r="D45" s="18">
+        <v>42506.399768518517</v>
+      </c>
+      <c r="E45" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="1"/>
+        <v>2.5358796294312924E-2</v>
+      </c>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="A46" s="6" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B46" s="6">
+        <v>4032</v>
+      </c>
+      <c r="C46" s="18">
+        <v>42506.412881944445</v>
+      </c>
+      <c r="D46" s="18">
+        <v>42506.439270833333</v>
+      </c>
+      <c r="E46" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="1"/>
+        <v>2.6388888887595385E-2</v>
+      </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="A47" s="6" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B47" s="6">
+        <v>4009</v>
+      </c>
+      <c r="C47" s="18">
+        <v>42506.380185185182</v>
+      </c>
+      <c r="D47" s="18">
+        <v>42506.411099537036</v>
+      </c>
+      <c r="E47" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0914351853425615E-2</v>
+      </c>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="A48" s="6" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B48" s="6">
+        <v>4010</v>
+      </c>
+      <c r="C48" s="18">
+        <v>42506.417303240742</v>
+      </c>
+      <c r="D48" s="18">
+        <v>42506.450289351851</v>
+      </c>
+      <c r="E48" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2986111109494232E-2</v>
+      </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="A49" s="6" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B49" s="6">
+        <v>4040</v>
+      </c>
+      <c r="C49" s="18">
+        <v>42506.390381944446</v>
+      </c>
+      <c r="D49" s="18">
+        <v>42506.420995370368</v>
+      </c>
+      <c r="E49" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F49" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0613425922638271E-2</v>
+      </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
+      <c r="A50" s="6" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B50" s="6">
+        <v>4039</v>
+      </c>
+      <c r="C50" s="18">
+        <v>42506.430196759262</v>
+      </c>
+      <c r="D50" s="18">
+        <v>42506.464456018519</v>
+      </c>
+      <c r="E50" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F50" s="15">
+        <f t="shared" si="1"/>
+        <v>3.4259259256941732E-2</v>
+      </c>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
+      <c r="A51" s="6" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B51" s="6">
+        <v>4024</v>
+      </c>
+      <c r="C51" s="18">
+        <v>42506.402916666666</v>
+      </c>
+      <c r="D51" s="18">
+        <v>42506.431631944448</v>
+      </c>
+      <c r="E51" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8715277781884652E-2</v>
+      </c>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="A52" s="6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B52" s="6">
+        <v>4023</v>
+      </c>
+      <c r="C52" s="18">
+        <v>42506.437673611108</v>
+      </c>
+      <c r="D52" s="18">
+        <v>42506.471018518518</v>
+      </c>
+      <c r="E52" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F52" s="15">
+        <f t="shared" si="1"/>
+        <v>3.3344907409627922E-2</v>
+      </c>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
+      <c r="A53" s="6" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B53" s="6">
+        <v>4016</v>
+      </c>
+      <c r="C53" s="18">
+        <v>42506.411307870374</v>
+      </c>
+      <c r="D53" s="18">
+        <v>42506.441643518519</v>
+      </c>
+      <c r="E53" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F53" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0335648145410232E-2</v>
+      </c>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
+      <c r="A54" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B54" s="6">
+        <v>4015</v>
+      </c>
+      <c r="C54" s="18">
+        <v>42506.453229166669</v>
+      </c>
+      <c r="D54" s="18">
+        <v>42506.481446759259</v>
+      </c>
+      <c r="E54" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8217592589498963E-2</v>
+      </c>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="A55" s="6" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B55" s="6">
+        <v>4011</v>
+      </c>
+      <c r="C55" s="18">
+        <v>42506.424131944441</v>
+      </c>
+      <c r="D55" s="18">
+        <v>42506.45239583333</v>
+      </c>
+      <c r="E55" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8263888889341615E-2</v>
+      </c>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
+      <c r="A56" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B56" s="6">
+        <v>4012</v>
+      </c>
+      <c r="C56" s="18">
+        <v>42506.462754629632</v>
+      </c>
+      <c r="D56" s="18">
+        <v>42506.49181712963</v>
+      </c>
+      <c r="E56" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9062499997962732E-2</v>
+      </c>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
+      <c r="A57" s="6" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B57" s="6">
+        <v>4020</v>
+      </c>
+      <c r="C57" s="18">
+        <v>42506.434027777781</v>
+      </c>
+      <c r="D57" s="18">
+        <v>42506.461712962962</v>
+      </c>
+      <c r="E57" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="1"/>
+        <v>2.7685185181326233E-2</v>
+      </c>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="A58" s="6" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B58" s="6">
+        <v>4019</v>
+      </c>
+      <c r="C58" s="18">
+        <v>42506.46980324074</v>
+      </c>
+      <c r="D58" s="18">
+        <v>42506.502430555556</v>
+      </c>
+      <c r="E58" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F58" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2627314816636499E-2</v>
+      </c>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="A59" s="6" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B59" s="6">
+        <v>4031</v>
+      </c>
+      <c r="C59" s="18">
+        <v>42506.444571759261</v>
+      </c>
+      <c r="D59" s="18">
+        <v>42506.473796296297</v>
+      </c>
+      <c r="E59" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F59" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9224537036498077E-2</v>
+      </c>
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
+      <c r="A60" s="6" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B60" s="6">
+        <v>4032</v>
+      </c>
+      <c r="C60" s="18">
+        <v>42506.477962962963</v>
+      </c>
+      <c r="D60" s="18">
+        <v>42506.512708333335</v>
+      </c>
+      <c r="E60" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="1"/>
+        <v>3.4745370372547768E-2</v>
+      </c>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
+      <c r="A61" s="6" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B61" s="6">
+        <v>4009</v>
+      </c>
+      <c r="C61" s="18">
+        <v>42506.458182870374</v>
+      </c>
+      <c r="D61" s="18">
+        <v>42506.482881944445</v>
+      </c>
+      <c r="E61" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F61" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4699074070667848E-2</v>
+      </c>
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
+      <c r="A62" s="6" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B62" s="6">
+        <v>4010</v>
+      </c>
+      <c r="C62" s="18">
+        <v>42506.497372685182</v>
+      </c>
+      <c r="D62" s="18">
+        <v>42506.522962962961</v>
+      </c>
+      <c r="E62" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="1"/>
+        <v>2.5590277778974269E-2</v>
+      </c>
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
+      <c r="A63" s="6" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B63" s="6">
+        <v>4040</v>
+      </c>
+      <c r="C63" s="18">
+        <v>42506.469085648147</v>
+      </c>
+      <c r="D63" s="18">
+        <v>42506.493900462963</v>
+      </c>
+      <c r="E63" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F63" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4814814816636499E-2</v>
+      </c>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
+      <c r="A64" s="6" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B64" s="6">
+        <v>4039</v>
+      </c>
+      <c r="C64" s="18">
+        <v>42506.503668981481</v>
+      </c>
+      <c r="D64" s="18">
+        <v>42506.533668981479</v>
+      </c>
+      <c r="E64" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F64" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9999999998835847E-2</v>
+      </c>
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
+      <c r="A65" s="6" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B65" s="6">
+        <v>4024</v>
+      </c>
+      <c r="C65" s="18">
+        <v>42506.473680555559</v>
+      </c>
+      <c r="D65" s="18">
+        <v>42506.505486111113</v>
+      </c>
+      <c r="E65" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F65" s="15">
+        <f t="shared" si="1"/>
+        <v>3.1805555554456078E-2</v>
+      </c>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
+      <c r="A66" s="6" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B66" s="6">
+        <v>4023</v>
+      </c>
+      <c r="C66" s="18">
+        <v>42506.511793981481</v>
+      </c>
+      <c r="D66" s="18">
+        <v>42506.544039351851</v>
+      </c>
+      <c r="E66" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F66" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2245370370219462E-2</v>
+      </c>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
+      <c r="A67" s="6" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B67" s="6">
+        <v>4016</v>
+      </c>
+      <c r="C67" s="18">
+        <v>42506.484849537039</v>
+      </c>
+      <c r="D67" s="18">
+        <v>42506.514560185184</v>
+      </c>
+      <c r="E67" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F67" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9710648144828156E-2</v>
+      </c>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
+      <c r="A68" s="6" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B68" s="6">
+        <v>4015</v>
+      </c>
+      <c r="C68" s="18">
+        <v>42506.526400462964</v>
+      </c>
+      <c r="D68" s="18">
+        <v>42506.554988425924</v>
+      </c>
+      <c r="E68" s="15" t="str">
+        <f t="shared" ref="E68:E130" si="2">IF(ISEVEN(B68),(B68-1)&amp;"/"&amp;B68,B68&amp;"/"&amp;(B68+1))</f>
+        <v>4015/4016</v>
+      </c>
+      <c r="F68" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8587962959136348E-2</v>
+      </c>
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
+      <c r="A69" s="6" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B69" s="6">
+        <v>4011</v>
+      </c>
+      <c r="C69" s="18">
+        <v>42506.495636574073</v>
+      </c>
+      <c r="D69" s="18">
+        <v>42506.524791666663</v>
+      </c>
+      <c r="E69" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F69" s="15">
+        <f t="shared" ref="F69:F131" si="3">D69-C69</f>
+        <v>2.9155092590372078E-2</v>
+      </c>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
+      <c r="A70" s="6" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B70" s="6">
+        <v>4012</v>
+      </c>
+      <c r="C70" s="18">
+        <v>42506.53396990741</v>
+      </c>
+      <c r="D70" s="18">
+        <v>42506.564965277779</v>
+      </c>
+      <c r="E70" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F70" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0995370369055308E-2</v>
+      </c>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
+      <c r="A71" s="6" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B71" s="6">
+        <v>4020</v>
+      </c>
+      <c r="C71" s="18">
+        <v>42506.510347222225</v>
+      </c>
+      <c r="D71" s="18">
+        <v>42506.536585648151</v>
+      </c>
+      <c r="E71" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F71" s="15">
+        <f t="shared" si="3"/>
+        <v>2.6238425925839692E-2</v>
+      </c>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
+      <c r="A72" s="6" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B72" s="6">
+        <v>4019</v>
+      </c>
+      <c r="C72" s="18">
+        <v>42506.548657407409</v>
+      </c>
+      <c r="D72" s="18">
+        <v>42506.575497685182</v>
+      </c>
+      <c r="E72" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F72" s="15">
+        <f t="shared" si="3"/>
+        <v>2.6840277772862464E-2</v>
+      </c>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
+      <c r="A73" s="6" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B73" s="6">
+        <v>4031</v>
+      </c>
+      <c r="C73" s="18">
+        <v>42506.515960648147</v>
+      </c>
+      <c r="D73" s="18">
+        <v>42506.548206018517</v>
+      </c>
+      <c r="E73" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F73" s="15">
+        <f t="shared" si="3"/>
+        <v>3.2245370370219462E-2</v>
+      </c>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
+      <c r="A74" s="6" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B74" s="6">
+        <v>4032</v>
+      </c>
+      <c r="C74" s="18">
+        <v>42506.555555555555</v>
+      </c>
+      <c r="D74" s="18">
+        <v>42506.585868055554</v>
+      </c>
+      <c r="E74" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F74" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0312499999126885E-2</v>
+      </c>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
+      <c r="A75" s="6" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B75" s="6">
+        <v>4009</v>
+      </c>
+      <c r="C75" s="18">
+        <v>42506.528437499997</v>
+      </c>
+      <c r="D75" s="18">
+        <v>42506.557060185187</v>
+      </c>
+      <c r="E75" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F75" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8622685189475305E-2</v>
+      </c>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
+      <c r="A76" s="6" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B76" s="6">
+        <v>4010</v>
+      </c>
+      <c r="C76" s="18">
+        <v>42506.566967592589</v>
+      </c>
+      <c r="D76" s="18">
+        <v>42506.596724537034</v>
+      </c>
+      <c r="E76" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F76" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9756944444670808E-2</v>
+      </c>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
+      <c r="A77" s="6" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B77" s="6">
+        <v>4040</v>
+      </c>
+      <c r="C77" s="18">
+        <v>42506.536782407406</v>
+      </c>
+      <c r="D77" s="18">
+        <v>42506.566944444443</v>
+      </c>
+      <c r="E77" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F77" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0162037037371192E-2</v>
+      </c>
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
+      <c r="A78" s="6" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B78" s="6">
+        <v>4039</v>
+      </c>
+      <c r="C78" s="18">
+        <v>42506.580729166664</v>
+      </c>
+      <c r="D78" s="18">
+        <v>42506.606469907405</v>
+      </c>
+      <c r="E78" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F78" s="15">
+        <f t="shared" si="3"/>
+        <v>2.5740740740729962E-2</v>
+      </c>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
+      <c r="A79" s="6" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B79" s="6">
+        <v>4024</v>
+      </c>
+      <c r="C79" s="18">
+        <v>42506.547129629631</v>
+      </c>
+      <c r="D79" s="18">
+        <v>42506.578657407408</v>
+      </c>
+      <c r="E79" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F79" s="15">
+        <f t="shared" si="3"/>
+        <v>3.1527777777228039E-2</v>
+      </c>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
+      <c r="A80" s="6" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B80" s="6">
+        <v>4023</v>
+      </c>
+      <c r="C80" s="18">
+        <v>42506.583923611113</v>
+      </c>
+      <c r="D80" s="18">
+        <v>42506.617847222224</v>
+      </c>
+      <c r="E80" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F80" s="15">
+        <f t="shared" si="3"/>
+        <v>3.3923611110367347E-2</v>
+      </c>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
+      <c r="A81" s="6" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B81" s="6">
+        <v>4016</v>
+      </c>
+      <c r="C81" s="18">
+        <v>42506.557638888888</v>
+      </c>
+      <c r="D81" s="18">
+        <v>42506.587256944447</v>
+      </c>
+      <c r="E81" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F81" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9618055559694767E-2</v>
+      </c>
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
+      <c r="A82" s="6" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B82" s="6">
+        <v>4015</v>
+      </c>
+      <c r="C82" s="18">
+        <v>42506.599363425928</v>
+      </c>
+      <c r="D82" s="18">
+        <v>42506.626840277779</v>
+      </c>
+      <c r="E82" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F82" s="15">
+        <f t="shared" si="3"/>
+        <v>2.7476851850224193E-2</v>
+      </c>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
+      <c r="A83" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B83" s="6">
+        <v>4011</v>
+      </c>
+      <c r="C83" s="18">
+        <v>42506.568136574075</v>
+      </c>
+      <c r="D83" s="18">
+        <v>42506.598032407404</v>
+      </c>
+      <c r="E83" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F83" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9895833329646848E-2</v>
+      </c>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
+      <c r="A84" s="6" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B84" s="6">
+        <v>4012</v>
+      </c>
+      <c r="C84" s="18">
+        <v>42506.608773148146</v>
+      </c>
+      <c r="D84" s="18">
+        <v>42506.637407407405</v>
+      </c>
+      <c r="E84" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F84" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8634259258979E-2</v>
+      </c>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
+      <c r="A85" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B85" s="6">
+        <v>4020</v>
+      </c>
+      <c r="C85" s="18">
+        <v>42506.579027777778</v>
+      </c>
+      <c r="D85" s="18">
+        <v>42506.607939814814</v>
+      </c>
+      <c r="E85" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F85" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8912037036207039E-2</v>
+      </c>
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
+      <c r="A86" s="6" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B86" s="6">
+        <v>4019</v>
+      </c>
+      <c r="C86" s="18">
+        <v>42506.617280092592</v>
+      </c>
+      <c r="D86" s="18">
+        <v>42506.64738425926</v>
+      </c>
+      <c r="E86" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F86" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0104166668024845E-2</v>
+      </c>
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
+      <c r="A87" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B87" s="6">
+        <v>4031</v>
+      </c>
+      <c r="C87" s="18">
+        <v>42506.589074074072</v>
+      </c>
+      <c r="D87" s="18">
+        <v>42506.61991898148</v>
+      </c>
+      <c r="E87" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F87" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0844907407299615E-2</v>
+      </c>
       <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
+      <c r="A88" s="6" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B88" s="6">
+        <v>4032</v>
+      </c>
+      <c r="C88" s="18">
+        <v>42506.623495370368</v>
+      </c>
+      <c r="D88" s="18">
+        <v>42506.658634259256</v>
+      </c>
+      <c r="E88" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F88" s="15">
+        <f t="shared" si="3"/>
+        <v>3.51388888884685E-2</v>
+      </c>
       <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
+      <c r="A89" s="6" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B89" s="6">
+        <v>4009</v>
+      </c>
+      <c r="C89" s="18">
+        <v>42506.602199074077</v>
+      </c>
+      <c r="D89" s="18">
+        <v>42506.629178240742</v>
+      </c>
+      <c r="E89" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="3"/>
+        <v>2.6979166665114462E-2</v>
+      </c>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
+      <c r="A90" s="6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B90" s="6">
+        <v>4010</v>
+      </c>
+      <c r="C90" s="18">
+        <v>42506.638078703705</v>
+      </c>
+      <c r="D90" s="18">
+        <v>42506.669444444444</v>
+      </c>
+      <c r="E90" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F90" s="15">
+        <f t="shared" si="3"/>
+        <v>3.1365740738692693E-2</v>
+      </c>
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
+      <c r="A91" s="6" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B91" s="6">
+        <v>4039</v>
+      </c>
+      <c r="C91" s="18">
+        <v>42506.650046296294</v>
+      </c>
+      <c r="D91" s="18">
+        <v>42506.6796875</v>
+      </c>
+      <c r="E91" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4039/4040</v>
+      </c>
+      <c r="F91" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9641203705978114E-2</v>
+      </c>
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
+      <c r="A92" s="6" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B92" s="6">
+        <v>4024</v>
+      </c>
+      <c r="C92" s="18">
+        <v>42506.620185185187</v>
+      </c>
+      <c r="D92" s="18">
+        <v>42506.650393518517</v>
+      </c>
+      <c r="E92" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F92" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0208333329937886E-2</v>
+      </c>
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
+      <c r="A93" s="6" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B93" s="6">
+        <v>4023</v>
+      </c>
+      <c r="C93" s="18">
+        <v>42506.653506944444</v>
+      </c>
+      <c r="D93" s="18">
+        <v>42506.691342592596</v>
+      </c>
+      <c r="E93" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F93" s="15">
+        <f t="shared" si="3"/>
+        <v>3.7835648152395152E-2</v>
+      </c>
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
+      <c r="A94" s="6" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B94" s="6">
+        <v>4016</v>
+      </c>
+      <c r="C94" s="18">
+        <v>42506.631805555553</v>
+      </c>
+      <c r="D94" s="18">
+        <v>42506.660115740742</v>
+      </c>
+      <c r="E94" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F94" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8310185189184267E-2</v>
+      </c>
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
+      <c r="A95" s="6" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B95" s="6">
+        <v>4015</v>
+      </c>
+      <c r="C95" s="18">
+        <v>42506.673333333332</v>
+      </c>
+      <c r="D95" s="18">
+        <v>42506.699687499997</v>
+      </c>
+      <c r="E95" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F95" s="15">
+        <f t="shared" si="3"/>
+        <v>2.6354166664532386E-2</v>
+      </c>
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
+      <c r="A96" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B96" s="6">
+        <v>4011</v>
+      </c>
+      <c r="C96" s="18">
+        <v>42506.641516203701</v>
+      </c>
+      <c r="D96" s="18">
+        <v>42506.670497685183</v>
+      </c>
+      <c r="E96" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F96" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8981481482333038E-2</v>
+      </c>
       <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
+      <c r="A97" s="6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B97" s="6">
+        <v>4012</v>
+      </c>
+      <c r="C97" s="18">
+        <v>42506.681087962963</v>
+      </c>
+      <c r="D97" s="18">
+        <v>42506.710497685184</v>
+      </c>
+      <c r="E97" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F97" s="15">
+        <f t="shared" si="3"/>
+        <v>2.940972222131677E-2</v>
+      </c>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
+      <c r="A98" s="6" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B98" s="6">
+        <v>4020</v>
+      </c>
+      <c r="C98" s="18">
+        <v>42506.653854166667</v>
+      </c>
+      <c r="D98" s="18">
+        <v>42506.681666666664</v>
+      </c>
+      <c r="E98" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F98" s="15">
+        <f t="shared" si="3"/>
+        <v>2.7812499996798579E-2</v>
+      </c>
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
+      <c r="A99" s="6" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B99" s="6">
+        <v>4019</v>
+      </c>
+      <c r="C99" s="18">
+        <v>42506.69332175926</v>
+      </c>
+      <c r="D99" s="18">
+        <v>42506.721643518518</v>
+      </c>
+      <c r="E99" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F99" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8321759258687962E-2</v>
+      </c>
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
+      <c r="A100" s="6" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B100" s="6">
+        <v>4031</v>
+      </c>
+      <c r="C100" s="18">
+        <v>42506.66207175926</v>
+      </c>
+      <c r="D100" s="18">
+        <v>42506.691550925927</v>
+      </c>
+      <c r="E100" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F100" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9479166667442769E-2</v>
+      </c>
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
+      <c r="A101" s="6" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B101" s="6">
+        <v>4032</v>
+      </c>
+      <c r="C101" s="18">
+        <v>42506.699305555558</v>
+      </c>
+      <c r="D101" s="18">
+        <v>42506.731620370374</v>
+      </c>
+      <c r="E101" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F101" s="15">
+        <f t="shared" si="3"/>
+        <v>3.2314814816345461E-2</v>
+      </c>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
+      <c r="A102" s="6" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B102" s="6">
+        <v>4009</v>
+      </c>
+      <c r="C102" s="18">
+        <v>42506.672291666669</v>
+      </c>
+      <c r="D102" s="18">
+        <v>42506.703645833331</v>
+      </c>
+      <c r="E102" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F102" s="15">
+        <f t="shared" si="3"/>
+        <v>3.1354166661913041E-2</v>
+      </c>
       <c r="G102" s="10"/>
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
+      <c r="A103" s="6" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B103" s="6">
+        <v>4010</v>
+      </c>
+      <c r="C103" s="18">
+        <v>42506.710416666669</v>
+      </c>
+      <c r="D103" s="18">
+        <v>42506.742731481485</v>
+      </c>
+      <c r="E103" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F103" s="15">
+        <f t="shared" si="3"/>
+        <v>3.2314814816345461E-2</v>
+      </c>
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
+      <c r="A104" s="6" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B104" s="6">
+        <v>4044</v>
+      </c>
+      <c r="C104" s="18">
+        <v>42506.684293981481</v>
+      </c>
+      <c r="D104" s="18">
+        <v>42506.712905092594</v>
+      </c>
+      <c r="E104" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4043/4044</v>
+      </c>
+      <c r="F104" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8611111112695653E-2</v>
+      </c>
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
+      <c r="A105" s="6" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B105" s="6">
+        <v>4043</v>
+      </c>
+      <c r="C105" s="18">
+        <v>42506.72179398148</v>
+      </c>
+      <c r="D105" s="18">
+        <v>42506.752071759256</v>
+      </c>
+      <c r="E105" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4043/4044</v>
+      </c>
+      <c r="F105" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0277777776063886E-2</v>
+      </c>
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
+      <c r="A106" s="6" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B106" s="6">
+        <v>4024</v>
+      </c>
+      <c r="C106" s="18">
+        <v>42506.694143518522</v>
+      </c>
+      <c r="D106" s="18">
+        <v>42506.724097222221</v>
+      </c>
+      <c r="E106" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9953703698993195E-2</v>
+      </c>
       <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
+      <c r="A107" s="6" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B107" s="6">
+        <v>4023</v>
+      </c>
+      <c r="C107" s="18">
+        <v>42506.727638888886</v>
+      </c>
+      <c r="D107" s="18">
+        <v>42506.76363425926</v>
+      </c>
+      <c r="E107" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F107" s="15">
+        <f t="shared" si="3"/>
+        <v>3.5995370373711921E-2</v>
+      </c>
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
+      <c r="A108" s="6" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B108" s="6">
+        <v>4016</v>
+      </c>
+      <c r="C108" s="18">
+        <v>42506.705729166664</v>
+      </c>
+      <c r="D108" s="18">
+        <v>42506.732986111114</v>
+      </c>
+      <c r="E108" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F108" s="15">
+        <f t="shared" si="3"/>
+        <v>2.7256944449618459E-2</v>
+      </c>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
+      <c r="A109" s="6" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B109" s="6">
+        <v>4015</v>
+      </c>
+      <c r="C109" s="18">
+        <v>42506.746388888889</v>
+      </c>
+      <c r="D109" s="18">
+        <v>42506.772916666669</v>
+      </c>
+      <c r="E109" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4015/4016</v>
+      </c>
+      <c r="F109" s="15">
+        <f t="shared" si="3"/>
+        <v>2.6527777779847383E-2</v>
+      </c>
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
+      <c r="A110" s="6" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B110" s="6">
+        <v>4011</v>
+      </c>
+      <c r="C110" s="18">
+        <v>42506.714837962965</v>
+      </c>
+      <c r="D110" s="18">
+        <v>42506.745023148149</v>
+      </c>
+      <c r="E110" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F110" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0185185183654539E-2</v>
+      </c>
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
+      <c r="A111" s="6" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B111" s="6">
+        <v>4012</v>
+      </c>
+      <c r="C111" s="18">
+        <v>42506.753472222219</v>
+      </c>
+      <c r="D111" s="18">
+        <v>42506.788344907407</v>
+      </c>
+      <c r="E111" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F111" s="15">
+        <f t="shared" si="3"/>
+        <v>3.4872685188020114E-2</v>
+      </c>
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
+      <c r="A112" s="6" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B112" s="6">
+        <v>4020</v>
+      </c>
+      <c r="C112" s="18">
+        <v>42506.726793981485</v>
+      </c>
+      <c r="D112" s="18">
+        <v>42506.75403935185</v>
+      </c>
+      <c r="E112" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F112" s="15">
+        <f t="shared" si="3"/>
+        <v>2.7245370365562849E-2</v>
+      </c>
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
+      <c r="A113" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B113" s="6">
+        <v>4019</v>
+      </c>
+      <c r="C113" s="18">
+        <v>42506.767650462964</v>
+      </c>
+      <c r="D113" s="18">
+        <v>42506.7968287037</v>
+      </c>
+      <c r="E113" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4019/4020</v>
+      </c>
+      <c r="F113" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9178240736655425E-2</v>
+      </c>
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
+      <c r="A114" s="6" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B114" s="6">
+        <v>4031</v>
+      </c>
+      <c r="C114" s="18">
+        <v>42506.736481481479</v>
+      </c>
+      <c r="D114" s="18">
+        <v>42506.765844907408</v>
+      </c>
+      <c r="E114" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F114" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9363425928750075E-2</v>
+      </c>
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
+      <c r="A115" s="6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B115" s="6">
+        <v>4032</v>
+      </c>
+      <c r="C115" s="18">
+        <v>42506.776192129626</v>
+      </c>
+      <c r="D115" s="18">
+        <v>42506.808807870373</v>
+      </c>
+      <c r="E115" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F115" s="15">
+        <f t="shared" si="3"/>
+        <v>3.2615740747132804E-2</v>
+      </c>
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
+      <c r="A116" s="6" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B116" s="6">
+        <v>4009</v>
+      </c>
+      <c r="C116" s="18">
+        <v>42506.746539351851</v>
+      </c>
+      <c r="D116" s="18">
+        <v>42506.77484953704</v>
+      </c>
+      <c r="E116" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F116" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8310185189184267E-2</v>
+      </c>
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
+      <c r="A117" s="6" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B117" s="6">
+        <v>4010</v>
+      </c>
+      <c r="C117" s="18">
+        <v>42506.782152777778</v>
+      </c>
+      <c r="D117" s="18">
+        <v>42506.817511574074</v>
+      </c>
+      <c r="E117" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4009/4010</v>
+      </c>
+      <c r="F117" s="15">
+        <f t="shared" si="3"/>
+        <v>3.5358796296350192E-2</v>
+      </c>
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
+      <c r="A118" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B118" s="6">
+        <v>4044</v>
+      </c>
+      <c r="C118" s="18">
+        <v>42506.756365740737</v>
+      </c>
+      <c r="D118" s="18">
+        <v>42506.789837962962</v>
+      </c>
+      <c r="E118" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4043/4044</v>
+      </c>
+      <c r="F118" s="15">
+        <f t="shared" si="3"/>
+        <v>3.3472222225100268E-2</v>
+      </c>
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
+      <c r="A119" s="6" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B119" s="6">
+        <v>4043</v>
+      </c>
+      <c r="C119" s="18">
+        <v>42506.79614583333</v>
+      </c>
+      <c r="D119" s="18">
+        <v>42506.827997685185</v>
+      </c>
+      <c r="E119" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4043/4044</v>
+      </c>
+      <c r="F119" s="15">
+        <f t="shared" si="3"/>
+        <v>3.1851851854298729E-2</v>
+      </c>
       <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
+      <c r="A120" s="6" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B120" s="6">
+        <v>4024</v>
+      </c>
+      <c r="C120" s="18">
+        <v>42506.767245370371</v>
+      </c>
+      <c r="D120" s="18">
+        <v>42506.797511574077</v>
+      </c>
+      <c r="E120" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F120" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0266203706560191E-2</v>
+      </c>
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
+      <c r="A121" s="6" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B121" s="6">
+        <v>4023</v>
+      </c>
+      <c r="C121" s="18">
+        <v>42506.807557870372</v>
+      </c>
+      <c r="D121" s="18">
+        <v>42506.840763888889</v>
+      </c>
+      <c r="E121" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F121" s="15">
+        <f t="shared" si="3"/>
+        <v>3.3206018517375924E-2</v>
+      </c>
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
+      <c r="A122" s="6" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B122" s="6">
+        <v>4011</v>
+      </c>
+      <c r="C122" s="18">
+        <v>42506.791018518517</v>
+      </c>
+      <c r="D122" s="18">
+        <v>42506.818749999999</v>
+      </c>
+      <c r="E122" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F122" s="15">
+        <f t="shared" si="3"/>
+        <v>2.7731481481168885E-2</v>
+      </c>
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="10"/>
+      <c r="A123" s="6" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B123" s="6">
+        <v>4012</v>
+      </c>
+      <c r="C123" s="18">
+        <v>42506.843784722223</v>
+      </c>
+      <c r="D123" s="18">
+        <v>42506.861504629633</v>
+      </c>
+      <c r="E123" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F123" s="15">
+        <v>3.145833333110204E-2</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
+      <c r="A124" s="6" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B124" s="6">
+        <v>4029</v>
+      </c>
+      <c r="C124" s="18">
+        <v>42506.815567129626</v>
+      </c>
+      <c r="D124" s="18">
+        <v>42506.845532407409</v>
+      </c>
+      <c r="E124" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4029/4030</v>
+      </c>
+      <c r="F124" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9965277783048805E-2</v>
+      </c>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="10"/>
+      <c r="A125" s="6" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B125" s="6">
+        <v>4030</v>
+      </c>
+      <c r="C125" s="18">
+        <v>42506.853263888886</v>
+      </c>
+      <c r="D125" s="18">
+        <v>42506.887986111113</v>
+      </c>
+      <c r="E125" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4029/4030</v>
+      </c>
+      <c r="F125" s="15">
+        <f t="shared" si="3"/>
+        <v>3.4722222226264421E-2</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
+      <c r="A126" s="6" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B126" s="6">
+        <v>4044</v>
+      </c>
+      <c r="C126" s="18">
+        <v>42506.832418981481</v>
+      </c>
+      <c r="D126" s="18">
+        <v>42506.85864583333</v>
+      </c>
+      <c r="E126" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4043/4044</v>
+      </c>
+      <c r="F126" s="15">
+        <f t="shared" si="3"/>
+        <v>2.622685184906004E-2</v>
+      </c>
       <c r="G126" s="10"/>
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
+      <c r="A127" s="6" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B127" s="6">
+        <v>4043</v>
+      </c>
+      <c r="C127" s="18">
+        <v>42506.867604166669</v>
+      </c>
+      <c r="D127" s="18">
+        <v>42506.91028935185</v>
+      </c>
+      <c r="E127" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4043/4044</v>
+      </c>
+      <c r="F127" s="15">
+        <f t="shared" si="3"/>
+        <v>4.2685185180744156E-2</v>
+      </c>
       <c r="G127" s="10"/>
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
+      <c r="A128" s="6" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B128" s="6">
+        <v>4024</v>
+      </c>
+      <c r="C128" s="18">
+        <v>42506.846192129633</v>
+      </c>
+      <c r="D128" s="18">
+        <v>42506.880324074074</v>
+      </c>
+      <c r="E128" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F128" s="15">
+        <f t="shared" si="3"/>
+        <v>3.4131944441469386E-2</v>
+      </c>
       <c r="G128" s="10"/>
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="10"/>
+      <c r="A129" s="6" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B129" s="6">
+        <v>4023</v>
+      </c>
+      <c r="C129" s="18">
+        <v>42506.893368055556</v>
+      </c>
+      <c r="D129" s="18">
+        <v>42506.951365740744</v>
+      </c>
+      <c r="E129" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F129" s="15">
+        <f t="shared" si="3"/>
+        <v>5.7997685187729076E-2</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>1807</v>
+      </c>
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
+      <c r="A130" s="6" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B130" s="6">
+        <v>4011</v>
+      </c>
+      <c r="C130" s="18">
+        <v>42506.869513888887</v>
+      </c>
+      <c r="D130" s="18">
+        <v>42506.900925925926</v>
+      </c>
+      <c r="E130" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F130" s="15">
+        <f t="shared" si="3"/>
+        <v>3.1412037038535345E-2</v>
+      </c>
       <c r="G130" s="10"/>
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
+      <c r="A131" s="6" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B131" s="6">
+        <v>4012</v>
+      </c>
+      <c r="C131" s="18">
+        <v>42506.914097222223</v>
+      </c>
+      <c r="D131" s="18">
+        <v>42506.967314814814</v>
+      </c>
+      <c r="E131" s="15" t="str">
+        <f t="shared" ref="E131:E135" si="4">IF(ISEVEN(B131),(B131-1)&amp;"/"&amp;B131,B131&amp;"/"&amp;(B131+1))</f>
+        <v>4011/4012</v>
+      </c>
+      <c r="F131" s="15">
+        <f t="shared" si="3"/>
+        <v>5.3217592590954155E-2</v>
+      </c>
       <c r="G131" s="10"/>
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="10"/>
+      <c r="A132" s="6" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B132" s="6">
+        <v>4031</v>
+      </c>
+      <c r="C132" s="18">
+        <v>42506.911226851851</v>
+      </c>
+      <c r="D132" s="18">
+        <v>42506.962164351855</v>
+      </c>
+      <c r="E132" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>4031/4032</v>
+      </c>
+      <c r="F132" s="15">
+        <f t="shared" ref="F132:F135" si="5">D132-C132</f>
+        <v>5.0937500003783498E-2</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>1808</v>
+      </c>
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="10"/>
+      <c r="A133" s="6" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B133" s="6">
+        <v>4044</v>
+      </c>
+      <c r="C133" s="18">
+        <v>42506.962384259263</v>
+      </c>
+      <c r="D133" s="18">
+        <v>42506.999583333331</v>
+      </c>
+      <c r="E133" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>4043/4044</v>
+      </c>
+      <c r="F133" s="15">
+        <v>4.0034722216660157E-2</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>1810</v>
+      </c>
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="10"/>
+      <c r="A134" s="6" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B134" s="6">
+        <v>4024</v>
+      </c>
+      <c r="C134" s="18">
+        <v>42506.960497685184</v>
+      </c>
+      <c r="D134" s="18">
+        <v>42506.985520833332</v>
+      </c>
+      <c r="E134" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>4023/4024</v>
+      </c>
+      <c r="F134" s="15">
+        <f t="shared" si="5"/>
+        <v>2.5023148147738539E-2</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>1809</v>
+      </c>
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
+      <c r="A135" s="6" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B135" s="6">
+        <v>4011</v>
+      </c>
+      <c r="C135" s="18">
+        <v>42506.974398148152</v>
+      </c>
+      <c r="D135" s="18">
+        <v>42507.006493055553</v>
+      </c>
+      <c r="E135" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>4011/4012</v>
+      </c>
+      <c r="F135" s="15">
+        <f t="shared" si="5"/>
+        <v>3.2094907401187811E-2</v>
+      </c>
       <c r="G135" s="10"/>
     </row>
     <row r="136" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -23513,6 +25905,7 @@
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
       <c r="G136" s="10"/>
+      <c r="H136"/>
     </row>
     <row r="137" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
@@ -23522,6 +25915,7 @@
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
       <c r="G137" s="10"/>
+      <c r="H137"/>
     </row>
     <row r="138" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
@@ -23543,7 +25937,7 @@
       <c r="G139" s="10"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="18"/>
@@ -23551,9 +25945,10 @@
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
       <c r="G140" s="10"/>
-      <c r="H140"/>
-    </row>
-    <row r="141" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="18"/>
@@ -23561,9 +25956,11 @@
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
       <c r="G141" s="10"/>
-      <c r="H141"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="18"/>
@@ -23571,8 +25968,11 @@
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
       <c r="G142" s="10"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
+      <c r="H142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
@@ -23582,11 +25982,10 @@
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
       <c r="G143" s="10"/>
-      <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="18"/>
@@ -23594,11 +25993,8 @@
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
       <c r="G144" s="10"/>
-      <c r="H144"/>
-      <c r="L144"/>
-      <c r="M144"/>
-      <c r="N144"/>
-      <c r="O144"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
@@ -23619,8 +26015,6 @@
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
       <c r="G146" s="10"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
@@ -23630,8 +26024,6 @@
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
       <c r="G147" s="10"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
@@ -23679,20 +26071,20 @@
       <c r="G152" s="10"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="17"/>
       <c r="C153" s="18"/>
       <c r="D153" s="18"/>
-      <c r="E153" s="15"/>
+      <c r="E153" s="6"/>
       <c r="F153" s="15"/>
       <c r="G153" s="10"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="17"/>
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
-      <c r="E154" s="15"/>
+      <c r="E154" s="6"/>
       <c r="F154" s="15"/>
       <c r="G154" s="10"/>
     </row>
@@ -23722,24 +26114,6 @@
       <c r="E157" s="6"/>
       <c r="F157" s="15"/>
       <c r="G157" s="10"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="17"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="10"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G2">
@@ -23751,84 +26125,100 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="L3:N3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A155:G159 C3:G154">
-    <cfRule type="expression" dxfId="27" priority="5">
+  <conditionalFormatting sqref="A153:G157 C3:G152">
+    <cfRule type="expression" dxfId="34" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="32" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G154">
-    <cfRule type="expression" dxfId="22" priority="1">
+  <conditionalFormatting sqref="A3:G152">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B110">
-    <cfRule type="expression" dxfId="21" priority="8">
+  <conditionalFormatting sqref="A27:B110 A121:B123">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111:B128">
-    <cfRule type="expression" dxfId="17" priority="14">
+  <conditionalFormatting sqref="A111:B119 A124:B127">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>$P115&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>$O115&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A129:B131">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$P136&gt;0</formula>
+  <conditionalFormatting sqref="A128:B130">
+    <cfRule type="expression" dxfId="22" priority="17">
+      <formula>$P134&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
-      <formula>$O136&gt;0</formula>
+    <cfRule type="expression" dxfId="21" priority="18">
+      <formula>$O134&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131:B131">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$P138&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$O138&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:B132">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="21">
+    <cfRule type="expression" dxfId="17" priority="24">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A134:B152">
+    <cfRule type="expression" dxfId="16" priority="26">
+      <formula>$P144&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="27">
+      <formula>$O144&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:B120">
+    <cfRule type="expression" dxfId="6" priority="240">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="241">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A133:B133">
-    <cfRule type="expression" dxfId="11" priority="23">
+    <cfRule type="expression" dxfId="2" priority="256">
       <formula>$P142&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24">
+    <cfRule type="expression" dxfId="1" priority="257">
       <formula>$O142&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:B154">
-    <cfRule type="expression" dxfId="9" priority="26">
-      <formula>$P144&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="27">
-      <formula>$O144&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23886,11 +26276,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A111:B128</xm:sqref>
+          <xm:sqref>A111:B119 A124:B127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="19" id="{84A30057-471A-4B51-9B8C-C0DB941C3BCA}">
-            <xm:f>$N136&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <xm:f>$N134&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -23899,10 +26289,23 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A129:B131</xm:sqref>
+          <xm:sqref>A128:B130</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="22" id="{EB263775-D6C3-4E15-A85A-97F6A08C60F7}">
+            <xm:f>$N138&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A131:B131</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{9FAF98A7-8D81-40ED-9424-99E8937AFA7C}">
             <xm:f>$N140&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -23915,7 +26318,46 @@
           <xm:sqref>A132:B132</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="25" id="{9FAF98A7-8D81-40ED-9424-99E8937AFA7C}">
+          <x14:cfRule type="expression" priority="28" id="{230EED0D-2651-4B61-90C5-1860F15494F0}">
+            <xm:f>$N144&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A134:B152</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="246" id="{FFFF8DC7-E5BE-43D4-8875-BA9CECEFE317}">
+            <xm:f>$N124&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A121:B123</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="247" id="{FFFF8DC7-E5BE-43D4-8875-BA9CECEFE317}">
+            <xm:f>#REF!&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A120:B120</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="260" id="{230EED0D-2651-4B61-90C5-1860F15494F0}">
             <xm:f>$N142&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -23926,19 +26368,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A133:B133</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="28" id="{230EED0D-2651-4B61-90C5-1860F15494F0}">
-            <xm:f>$N144&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A134:B154</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -25036,145 +27465,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H4">
-    <cfRule type="expression" dxfId="200" priority="45">
+    <cfRule type="expression" dxfId="207" priority="45">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="46">
+    <cfRule type="expression" dxfId="206" priority="46">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="47">
+    <cfRule type="expression" dxfId="205" priority="47">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G8 F5:H6">
-    <cfRule type="expression" dxfId="197" priority="42">
+    <cfRule type="expression" dxfId="204" priority="42">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="43">
+    <cfRule type="expression" dxfId="203" priority="43">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="44">
+    <cfRule type="expression" dxfId="202" priority="44">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E8 H9:H11 H14:H18">
-    <cfRule type="expression" dxfId="194" priority="40">
+    <cfRule type="expression" dxfId="201" priority="40">
       <formula>$Q5&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="41">
+    <cfRule type="expression" dxfId="200" priority="41">
       <formula>$P5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="192" priority="37">
+    <cfRule type="expression" dxfId="199" priority="37">
       <formula>$Q7&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="38">
+    <cfRule type="expression" dxfId="198" priority="38">
       <formula>$P7&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="190" priority="34">
+    <cfRule type="expression" dxfId="197" priority="34">
       <formula>$Q8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="35">
+    <cfRule type="expression" dxfId="196" priority="35">
       <formula>$P8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11">
-    <cfRule type="expression" dxfId="188" priority="30">
+    <cfRule type="expression" dxfId="195" priority="30">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="31">
+    <cfRule type="expression" dxfId="194" priority="31">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="32">
+    <cfRule type="expression" dxfId="193" priority="32">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="expression" dxfId="185" priority="28">
+    <cfRule type="expression" dxfId="192" priority="28">
       <formula>$Q9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="29">
+    <cfRule type="expression" dxfId="191" priority="29">
       <formula>$P9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G13">
-    <cfRule type="expression" dxfId="183" priority="24">
+    <cfRule type="expression" dxfId="190" priority="24">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="25">
+    <cfRule type="expression" dxfId="189" priority="25">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="26">
+    <cfRule type="expression" dxfId="188" priority="26">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E13">
-    <cfRule type="expression" dxfId="180" priority="22">
+    <cfRule type="expression" dxfId="187" priority="22">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="23">
+    <cfRule type="expression" dxfId="186" priority="23">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="178" priority="19">
+    <cfRule type="expression" dxfId="185" priority="19">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="20">
+    <cfRule type="expression" dxfId="184" priority="20">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="176" priority="16">
+    <cfRule type="expression" dxfId="183" priority="16">
       <formula>$Q13&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="17">
+    <cfRule type="expression" dxfId="182" priority="17">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G18">
-    <cfRule type="expression" dxfId="174" priority="12">
+    <cfRule type="expression" dxfId="181" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="13">
+    <cfRule type="expression" dxfId="180" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="14">
+    <cfRule type="expression" dxfId="179" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E18">
-    <cfRule type="expression" dxfId="171" priority="10">
+    <cfRule type="expression" dxfId="178" priority="10">
       <formula>$Q14&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="11">
+    <cfRule type="expression" dxfId="177" priority="11">
       <formula>$P14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:E41 G35:H41">
-    <cfRule type="expression" dxfId="169" priority="6">
+    <cfRule type="expression" dxfId="176" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="7">
+    <cfRule type="expression" dxfId="175" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="8">
+    <cfRule type="expression" dxfId="174" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C41 F35:F41">
-    <cfRule type="expression" dxfId="166" priority="4">
+    <cfRule type="expression" dxfId="173" priority="4">
       <formula>$P35&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="5">
+    <cfRule type="expression" dxfId="172" priority="5">
       <formula>$O35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:E41 G35:H41">
-    <cfRule type="expression" dxfId="164" priority="2">
+    <cfRule type="expression" dxfId="171" priority="2">
       <formula>NOT(ISBLANK($G35))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25323,8 +27752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25437,7 +27866,10 @@
       <c r="B13" s="54" t="s">
         <v>1673</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <f>C100</f>
+        <v>127</v>
+      </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="57" t="s">
@@ -25445,7 +27877,7 @@
       </c>
       <c r="C14" s="58">
         <f>SUM(C3:C13)</f>
-        <v>1380</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -26806,20 +29238,20 @@
         <v>7</v>
       </c>
       <c r="C99" s="25">
-        <f>'2016-05-12 Train Runs'!K37</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="25">
-        <f>'2016-05-12 Train Runs'!L37</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="25">
-        <f>'2016-05-12 Train Runs'!M37</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="25">
-        <f>'2016-05-12 Train Runs'!N37</f>
-        <v>0</v>
+        <f>'2016-05-16 Train Runs'!K5</f>
+        <v>133</v>
+      </c>
+      <c r="D99" s="25" t="str">
+        <f>'2016-05-16 Train Runs'!L5</f>
+        <v>NA</v>
+      </c>
+      <c r="E99" s="25" t="str">
+        <f>'2016-05-16 Train Runs'!M5</f>
+        <v>NA</v>
+      </c>
+      <c r="F99" s="25" t="str">
+        <f>'2016-05-16 Train Runs'!N5</f>
+        <v>NA</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
@@ -26827,20 +29259,20 @@
         <v>15</v>
       </c>
       <c r="C100" s="25">
-        <f>'2016-05-12 Train Runs'!K38</f>
-        <v>0</v>
+        <f>'2016-05-16 Train Runs'!K6</f>
+        <v>127</v>
       </c>
       <c r="D100" s="26">
-        <f>'2016-05-12 Train Runs'!L38</f>
-        <v>0</v>
+        <f>'2016-05-16 Train Runs'!L6</f>
+        <v>44.154761904593265</v>
       </c>
       <c r="E100" s="26">
-        <f>'2016-05-12 Train Runs'!M38</f>
-        <v>0</v>
+        <f>'2016-05-16 Train Runs'!M6</f>
+        <v>35.399999998044223</v>
       </c>
       <c r="F100" s="26">
-        <f>'2016-05-12 Train Runs'!N38</f>
-        <v>0</v>
+        <f>'2016-05-16 Train Runs'!N6</f>
+        <v>76.633333330973983</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
@@ -26848,20 +29280,20 @@
         <v>9</v>
       </c>
       <c r="C101" s="30">
-        <f>'2016-05-12 Train Runs'!K39</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="27">
-        <f>'2016-05-12 Train Runs'!L39</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="25">
-        <f>'2016-05-12 Train Runs'!M39</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="25">
-        <f>'2016-05-12 Train Runs'!N39</f>
-        <v>0</v>
+        <f>'2016-05-16 Train Runs'!K7</f>
+        <v>0.95488721804511278</v>
+      </c>
+      <c r="D101" s="27" t="str">
+        <f>'2016-05-16 Train Runs'!L7</f>
+        <v>NA</v>
+      </c>
+      <c r="E101" s="25" t="str">
+        <f>'2016-05-16 Train Runs'!M7</f>
+        <v>NA</v>
+      </c>
+      <c r="F101" s="25" t="str">
+        <f>'2016-05-16 Train Runs'!N7</f>
+        <v>NA</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
@@ -26869,20 +29301,20 @@
         <v>16</v>
       </c>
       <c r="C102" s="25">
-        <f>'2016-05-12 Train Runs'!K40</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="27">
-        <f>'2016-05-12 Train Runs'!L40</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="27">
-        <f>'2016-05-12 Train Runs'!M40</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="27">
-        <f>'2016-05-12 Train Runs'!N40</f>
-        <v>0</v>
+        <f>'2016-05-16 Train Runs'!K8</f>
+        <v>6</v>
+      </c>
+      <c r="D102" s="27" t="str">
+        <f>'2016-05-16 Train Runs'!L8</f>
+        <v>NA</v>
+      </c>
+      <c r="E102" s="27" t="str">
+        <f>'2016-05-16 Train Runs'!M8</f>
+        <v>NA</v>
+      </c>
+      <c r="F102" s="27" t="str">
+        <f>'2016-05-16 Train Runs'!N8</f>
+        <v>NA</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26890,20 +29322,20 @@
         <v>17</v>
       </c>
       <c r="C103" s="31">
-        <f>'2016-05-12 Train Runs'!K41</f>
+        <f>'2016-05-16 Train Runs'!K9</f>
         <v>0</v>
       </c>
-      <c r="D103" s="28">
-        <f>'2016-05-12 Train Runs'!L41</f>
-        <v>0</v>
-      </c>
-      <c r="E103" s="28">
-        <f>'2016-05-12 Train Runs'!M41</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="28">
-        <f>'2016-05-12 Train Runs'!N41</f>
-        <v>0</v>
+      <c r="D103" s="28" t="str">
+        <f>'2016-05-16 Train Runs'!L9</f>
+        <v>NA</v>
+      </c>
+      <c r="E103" s="28" t="str">
+        <f>'2016-05-16 Train Runs'!M9</f>
+        <v>NA</v>
+      </c>
+      <c r="F103" s="28" t="str">
+        <f>'2016-05-16 Train Runs'!N9</f>
+        <v>NA</v>
       </c>
     </row>
   </sheetData>
@@ -30472,56 +32904,56 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A151:G175 C149:G150">
-    <cfRule type="expression" dxfId="153" priority="28">
+    <cfRule type="expression" dxfId="160" priority="28">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="29">
+    <cfRule type="expression" dxfId="159" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="30">
+    <cfRule type="expression" dxfId="158" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:B150">
-    <cfRule type="expression" dxfId="150" priority="26">
+    <cfRule type="expression" dxfId="157" priority="26">
       <formula>$P149&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="27">
+    <cfRule type="expression" dxfId="156" priority="27">
       <formula>$O149&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G148">
-    <cfRule type="expression" dxfId="148" priority="10">
+    <cfRule type="expression" dxfId="155" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="11">
+    <cfRule type="expression" dxfId="154" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="12">
+    <cfRule type="expression" dxfId="153" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B148">
-    <cfRule type="expression" dxfId="145" priority="8">
+    <cfRule type="expression" dxfId="152" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="9">
+    <cfRule type="expression" dxfId="151" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C148">
-    <cfRule type="expression" dxfId="143" priority="5">
+    <cfRule type="expression" dxfId="150" priority="5">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="6">
+    <cfRule type="expression" dxfId="149" priority="6">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D148">
-    <cfRule type="expression" dxfId="141" priority="2">
+    <cfRule type="expression" dxfId="148" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="3">
+    <cfRule type="expression" dxfId="147" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33957,21 +36389,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G149">
-    <cfRule type="expression" dxfId="135" priority="4">
+    <cfRule type="expression" dxfId="142" priority="4">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="5">
+    <cfRule type="expression" dxfId="141" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="6">
+    <cfRule type="expression" dxfId="140" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B149">
-    <cfRule type="expression" dxfId="132" priority="2">
+    <cfRule type="expression" dxfId="139" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="3">
+    <cfRule type="expression" dxfId="138" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37567,26 +39999,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:G176 C3:G147">
-    <cfRule type="expression" dxfId="129" priority="5">
+    <cfRule type="expression" dxfId="136" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="6">
+    <cfRule type="expression" dxfId="135" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="7">
+    <cfRule type="expression" dxfId="134" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B147">
-    <cfRule type="expression" dxfId="126" priority="3">
+    <cfRule type="expression" dxfId="133" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="4">
+    <cfRule type="expression" dxfId="132" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G147">
-    <cfRule type="expression" dxfId="124" priority="1">
+    <cfRule type="expression" dxfId="131" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41136,42 +43568,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A146:G174 C3:G145">
-    <cfRule type="expression" dxfId="122" priority="16">
+    <cfRule type="expression" dxfId="129" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="17">
+    <cfRule type="expression" dxfId="128" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="18">
+    <cfRule type="expression" dxfId="127" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B86 A88:B145 B87">
-    <cfRule type="expression" dxfId="119" priority="14">
+    <cfRule type="expression" dxfId="126" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="15">
+    <cfRule type="expression" dxfId="125" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G86 A88:G145 B87:G87">
-    <cfRule type="expression" dxfId="117" priority="12">
+    <cfRule type="expression" dxfId="124" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="116" priority="6">
+    <cfRule type="expression" dxfId="123" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="7">
+    <cfRule type="expression" dxfId="122" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="8">
+    <cfRule type="expression" dxfId="121" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="113" priority="5">
+    <cfRule type="expression" dxfId="120" priority="5">
       <formula>NOT(ISBLANK($G87))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44697,42 +47129,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A145:G172 C3:D144 F3:G144">
-    <cfRule type="expression" dxfId="111" priority="12">
+    <cfRule type="expression" dxfId="118" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="13">
+    <cfRule type="expression" dxfId="117" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="14">
+    <cfRule type="expression" dxfId="116" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A86:B144 A3:B84 E3:E144">
-    <cfRule type="expression" dxfId="108" priority="10">
+    <cfRule type="expression" dxfId="115" priority="10">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="11">
+    <cfRule type="expression" dxfId="114" priority="11">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A86:D144 A3:D84 F3:G144">
-    <cfRule type="expression" dxfId="106" priority="8">
+    <cfRule type="expression" dxfId="113" priority="8">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="105" priority="5">
+    <cfRule type="expression" dxfId="112" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="6">
+    <cfRule type="expression" dxfId="111" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="7">
+    <cfRule type="expression" dxfId="110" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="102" priority="4">
+    <cfRule type="expression" dxfId="109" priority="4">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48276,26 +50708,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A147:G171 D3:D146 F3:G146">
-    <cfRule type="expression" dxfId="99" priority="16">
+    <cfRule type="expression" dxfId="106" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="17">
+    <cfRule type="expression" dxfId="105" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="18">
+    <cfRule type="expression" dxfId="104" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E146 A3:C146">
-    <cfRule type="expression" dxfId="96" priority="14">
+    <cfRule type="expression" dxfId="103" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="15">
+    <cfRule type="expression" dxfId="102" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144:F146 D3:D143 F3:G143">
-    <cfRule type="expression" dxfId="94" priority="12">
+    <cfRule type="expression" dxfId="101" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs 2016-05-16 (FRA Format).xlsx
+++ b/EC/Train Runs 2016-05-16 (FRA Format).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Summary" sheetId="15" r:id="rId1"/>
@@ -4434,9 +4434,6 @@
     <t>Onboard entered a failsafe state that caused train comm outage</t>
   </si>
   <si>
-    <t>Train was cut out by message from dispatch system</t>
-  </si>
-  <si>
     <t>Wayside link failure</t>
   </si>
   <si>
@@ -5737,6 +5734,9 @@
   </si>
   <si>
     <t>Routing at DUS Signal 2N</t>
+  </si>
+  <si>
+    <t>Onboard entered a failsafe state that caused the dispatch system to cut it out</t>
   </si>
 </sst>
 </file>
@@ -6266,53 +6266,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="220">
+  <dxfs count="208">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6369,6 +6327,48 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7723,90 +7723,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8010,7 +7926,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8034,11 +7950,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_2" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_2" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11942,8 +11858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14292,7 +14208,7 @@
         <v>2.733796297252411E-2</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>1376</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -14506,7 +14422,7 @@
         <v>2.9872685190639459E-2</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -14676,7 +14592,7 @@
         <v>3.0752314814890269E-2</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -14699,7 +14615,7 @@
         <v>2.4189814816054422E-2</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -14745,7 +14661,7 @@
         <v>2.6087962964083999E-2</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -15047,7 +14963,7 @@
         <v>9.9999999947613105E-3</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
@@ -15634,7 +15550,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B4" s="6">
         <v>4032</v>
@@ -15668,7 +15584,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B5" s="6">
         <v>4040</v>
@@ -15705,7 +15621,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B6" s="6">
         <v>4023</v>
@@ -15742,7 +15658,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B7" s="6">
         <v>4016</v>
@@ -15779,7 +15695,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B8" s="6">
         <v>4026</v>
@@ -15816,7 +15732,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B9" s="6">
         <v>4038</v>
@@ -15852,7 +15768,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B10" s="6">
         <v>4037</v>
@@ -15873,7 +15789,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B11" s="6">
         <v>4014</v>
@@ -15894,7 +15810,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B12" s="6">
         <v>4013</v>
@@ -15915,7 +15831,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B13" s="6">
         <v>4011</v>
@@ -15936,7 +15852,7 @@
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B14" s="6">
         <v>4012</v>
@@ -15957,7 +15873,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B15" s="6">
         <v>4031</v>
@@ -15978,7 +15894,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B16" s="6">
         <v>4032</v>
@@ -15999,7 +15915,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B17" s="6">
         <v>4040</v>
@@ -16020,7 +15936,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B18" s="6">
         <v>4039</v>
@@ -16041,7 +15957,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B19" s="6">
         <v>4024</v>
@@ -16062,7 +15978,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B20" s="6">
         <v>4023</v>
@@ -16083,7 +15999,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B21" s="6">
         <v>4016</v>
@@ -16104,7 +16020,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B22" s="6">
         <v>4015</v>
@@ -16125,7 +16041,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B23" s="6">
         <v>4038</v>
@@ -16146,7 +16062,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B24" s="6">
         <v>4037</v>
@@ -16167,7 +16083,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B25" s="6">
         <v>4014</v>
@@ -16188,7 +16104,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B26" s="6">
         <v>4013</v>
@@ -16209,7 +16125,7 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B27" s="6">
         <v>4011</v>
@@ -16232,7 +16148,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B28" s="6">
         <v>4012</v>
@@ -16253,7 +16169,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B29" s="6">
         <v>4031</v>
@@ -16274,7 +16190,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B30" s="6">
         <v>4032</v>
@@ -16295,7 +16211,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B31" s="6">
         <v>4040</v>
@@ -16316,7 +16232,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B32" s="6">
         <v>4039</v>
@@ -16337,7 +16253,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B33" s="6">
         <v>4024</v>
@@ -16358,7 +16274,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B34" s="6">
         <v>4023</v>
@@ -16379,7 +16295,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B35" s="6">
         <v>4016</v>
@@ -16400,7 +16316,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B36" s="6">
         <v>4015</v>
@@ -16421,7 +16337,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B37" s="6">
         <v>4038</v>
@@ -16442,7 +16358,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B38" s="6">
         <v>4037</v>
@@ -16463,7 +16379,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B39" s="6">
         <v>4014</v>
@@ -16484,7 +16400,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B40" s="6">
         <v>4013</v>
@@ -16505,7 +16421,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B41" s="6">
         <v>4011</v>
@@ -16526,7 +16442,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B42" s="6">
         <v>4012</v>
@@ -16547,7 +16463,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B43" s="6">
         <v>4031</v>
@@ -16568,7 +16484,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B44" s="6">
         <v>4032</v>
@@ -16589,7 +16505,7 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B45" s="6">
         <v>4040</v>
@@ -16610,7 +16526,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B46" s="6">
         <v>4039</v>
@@ -16631,7 +16547,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B47" s="6">
         <v>4024</v>
@@ -16652,7 +16568,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B48" s="6">
         <v>4023</v>
@@ -16673,7 +16589,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B49" s="6">
         <v>4016</v>
@@ -16696,7 +16612,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B50" s="6">
         <v>4015</v>
@@ -16717,7 +16633,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B51" s="6">
         <v>4038</v>
@@ -16738,7 +16654,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B52" s="6">
         <v>4037</v>
@@ -16759,7 +16675,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B53" s="6">
         <v>4014</v>
@@ -16780,7 +16696,7 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B54" s="6">
         <v>4013</v>
@@ -16801,7 +16717,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B55" s="6">
         <v>4011</v>
@@ -16822,7 +16738,7 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B56" s="6">
         <v>4012</v>
@@ -16843,7 +16759,7 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B57" s="6">
         <v>4031</v>
@@ -16864,7 +16780,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B58" s="6">
         <v>4032</v>
@@ -16885,7 +16801,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B59" s="6">
         <v>4040</v>
@@ -16906,7 +16822,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B60" s="6">
         <v>4039</v>
@@ -16927,7 +16843,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B61" s="6">
         <v>4024</v>
@@ -16948,7 +16864,7 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B62" s="6">
         <v>4023</v>
@@ -16969,7 +16885,7 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B63" s="6">
         <v>4015</v>
@@ -16990,7 +16906,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B64" s="6">
         <v>4038</v>
@@ -17011,7 +16927,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B65" s="6">
         <v>4037</v>
@@ -17032,7 +16948,7 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B66" s="6">
         <v>4014</v>
@@ -17053,7 +16969,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B67" s="6">
         <v>4013</v>
@@ -17074,7 +16990,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B68" s="6">
         <v>4011</v>
@@ -17095,7 +17011,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B69" s="6">
         <v>4012</v>
@@ -17116,7 +17032,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B70" s="6">
         <v>4031</v>
@@ -17137,7 +17053,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B71" s="6">
         <v>4032</v>
@@ -17158,7 +17074,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B72" s="6">
         <v>4040</v>
@@ -17179,7 +17095,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B73" s="6">
         <v>4039</v>
@@ -17200,7 +17116,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B74" s="6">
         <v>4025</v>
@@ -17221,7 +17137,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B75" s="6">
         <v>4026</v>
@@ -17242,7 +17158,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B76" s="6">
         <v>4016</v>
@@ -17263,7 +17179,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B77" s="6">
         <v>4015</v>
@@ -17284,7 +17200,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B78" s="6">
         <v>4038</v>
@@ -17305,7 +17221,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B79" s="6">
         <v>4037</v>
@@ -17326,7 +17242,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B80" s="6">
         <v>4014</v>
@@ -17347,7 +17263,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B81" s="6">
         <v>4013</v>
@@ -17368,7 +17284,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B82" s="6">
         <v>4011</v>
@@ -17389,7 +17305,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B83" s="6">
         <v>4012</v>
@@ -17410,7 +17326,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B84" s="6">
         <v>4031</v>
@@ -17431,7 +17347,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B85" s="6">
         <v>4032</v>
@@ -17452,7 +17368,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B86" s="6">
         <v>4040</v>
@@ -17473,7 +17389,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B87" s="6">
         <v>4039</v>
@@ -17494,7 +17410,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B88" s="6">
         <v>4025</v>
@@ -17515,7 +17431,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B89" s="6">
         <v>4026</v>
@@ -17536,7 +17452,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B90" s="6">
         <v>4016</v>
@@ -17557,7 +17473,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B91" s="6">
         <v>4015</v>
@@ -17578,7 +17494,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B92" s="6">
         <v>4038</v>
@@ -17599,7 +17515,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B93" s="6">
         <v>4037</v>
@@ -17620,7 +17536,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B94" s="6">
         <v>4014</v>
@@ -17641,7 +17557,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B95" s="6">
         <v>4013</v>
@@ -17662,7 +17578,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B96" s="6">
         <v>4011</v>
@@ -17683,7 +17599,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B97" s="6">
         <v>4012</v>
@@ -17704,7 +17620,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B98" s="6">
         <v>4031</v>
@@ -17725,7 +17641,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B99" s="6">
         <v>4032</v>
@@ -17746,7 +17662,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B100" s="6">
         <v>4040</v>
@@ -17767,7 +17683,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B101" s="6">
         <v>4039</v>
@@ -17788,7 +17704,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B102" s="6">
         <v>4025</v>
@@ -17809,7 +17725,7 @@
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B103" s="6">
         <v>4026</v>
@@ -17830,7 +17746,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B104" s="6">
         <v>4016</v>
@@ -17851,7 +17767,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B105" s="6">
         <v>4015</v>
@@ -17872,7 +17788,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B106" s="6">
         <v>4038</v>
@@ -17893,7 +17809,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B107" s="6">
         <v>4037</v>
@@ -17914,7 +17830,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B108" s="6">
         <v>4014</v>
@@ -17935,7 +17851,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B109" s="6">
         <v>4013</v>
@@ -17956,7 +17872,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B110" s="6">
         <v>4011</v>
@@ -17977,7 +17893,7 @@
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B111" s="6">
         <v>4012</v>
@@ -17998,7 +17914,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B112" s="6">
         <v>4031</v>
@@ -18019,7 +17935,7 @@
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B113" s="6">
         <v>4032</v>
@@ -18040,7 +17956,7 @@
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B114" s="6">
         <v>4040</v>
@@ -18061,7 +17977,7 @@
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B115" s="6">
         <v>4039</v>
@@ -18082,7 +17998,7 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B116" s="6">
         <v>4025</v>
@@ -18103,7 +18019,7 @@
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B117" s="6">
         <v>4026</v>
@@ -18124,7 +18040,7 @@
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B118" s="6">
         <v>4016</v>
@@ -18145,7 +18061,7 @@
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B119" s="6">
         <v>4015</v>
@@ -18166,7 +18082,7 @@
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B120" s="6">
         <v>4038</v>
@@ -18187,7 +18103,7 @@
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B121" s="6">
         <v>4037</v>
@@ -18208,7 +18124,7 @@
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B122" s="6">
         <v>4011</v>
@@ -18229,7 +18145,7 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B123" s="6">
         <v>4012</v>
@@ -18250,7 +18166,7 @@
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B124" s="6">
         <v>4040</v>
@@ -18271,7 +18187,7 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B125" s="6">
         <v>4039</v>
@@ -18292,7 +18208,7 @@
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B126" s="6">
         <v>4016</v>
@@ -18313,7 +18229,7 @@
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B127" s="6">
         <v>4015</v>
@@ -18334,7 +18250,7 @@
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B128" s="6">
         <v>4038</v>
@@ -18355,7 +18271,7 @@
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B129" s="6">
         <v>4037</v>
@@ -18376,7 +18292,7 @@
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B130" s="6">
         <v>4024</v>
@@ -18397,7 +18313,7 @@
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B131" s="6">
         <v>4023</v>
@@ -18418,7 +18334,7 @@
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B132" s="6">
         <v>4040</v>
@@ -18439,7 +18355,7 @@
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B133" s="6">
         <v>4039</v>
@@ -18460,7 +18376,7 @@
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B134" s="6">
         <v>4016</v>
@@ -18481,7 +18397,7 @@
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B135" s="6">
         <v>4015</v>
@@ -18502,7 +18418,7 @@
     </row>
     <row r="136" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B136" s="6">
         <v>4038</v>
@@ -18523,7 +18439,7 @@
     </row>
     <row r="137" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B137" s="6">
         <v>4037</v>
@@ -18544,7 +18460,7 @@
     </row>
     <row r="138" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B138" s="6">
         <v>4024</v>
@@ -18566,7 +18482,7 @@
     </row>
     <row r="139" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B139" s="6">
         <v>4023</v>
@@ -18588,7 +18504,7 @@
     </row>
     <row r="140" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B140" s="6">
         <v>4040</v>
@@ -18610,7 +18526,7 @@
     </row>
     <row r="141" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B141" s="6">
         <v>4039</v>
@@ -18632,7 +18548,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B142" s="6">
         <v>4016</v>
@@ -18655,7 +18571,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B143" s="6">
         <v>4015</v>
@@ -18679,7 +18595,7 @@
     </row>
     <row r="144" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B144" s="6">
         <v>4038</v>
@@ -18705,7 +18621,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B145" s="6">
         <v>4037</v>
@@ -18728,7 +18644,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B146" s="6">
         <v>4024</v>
@@ -18751,7 +18667,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B147" s="6">
         <v>4023</v>
@@ -19177,7 +19093,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B4" s="6">
         <v>4032</v>
@@ -19211,7 +19127,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="6">
         <v>4007</v>
@@ -19248,7 +19164,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B6" s="6">
         <v>4017</v>
@@ -19266,7 +19182,7 @@
         <v>2.156249999825377E-2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>15</v>
@@ -19287,7 +19203,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B7" s="6">
         <v>4025</v>
@@ -19305,7 +19221,7 @@
         <v>2.3587962961755693E-2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>9</v>
@@ -19326,7 +19242,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B8" s="6">
         <v>4030</v>
@@ -19363,7 +19279,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B9" s="6">
         <v>4016</v>
@@ -19399,7 +19315,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B10" s="6">
         <v>4015</v>
@@ -19420,7 +19336,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B11" s="6">
         <v>4040</v>
@@ -19441,7 +19357,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B12" s="6">
         <v>4039</v>
@@ -19462,7 +19378,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B13" s="6">
         <v>4014</v>
@@ -19483,7 +19399,7 @@
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B14" s="6">
         <v>4013</v>
@@ -19504,7 +19420,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B15" s="6">
         <v>4031</v>
@@ -19525,7 +19441,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B16" s="6">
         <v>4032</v>
@@ -19546,7 +19462,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B17" s="6">
         <v>4007</v>
@@ -19567,7 +19483,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B18" s="6">
         <v>4008</v>
@@ -19588,7 +19504,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B19" s="6">
         <v>4018</v>
@@ -19609,7 +19525,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B20" s="6">
         <v>4017</v>
@@ -19630,7 +19546,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B21" s="6">
         <v>4029</v>
@@ -19651,7 +19567,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B22" s="6">
         <v>4030</v>
@@ -19674,7 +19590,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B23" s="6">
         <v>4016</v>
@@ -19695,7 +19611,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B24" s="6">
         <v>4015</v>
@@ -19716,7 +19632,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B25" s="6">
         <v>4040</v>
@@ -19737,7 +19653,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B26" s="6">
         <v>4039</v>
@@ -19755,12 +19671,12 @@
         <v>1.6365740746550728E-2</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B27" s="6">
         <v>4014</v>
@@ -19781,7 +19697,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B28" s="6">
         <v>4013</v>
@@ -19802,7 +19718,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B29" s="6">
         <v>4031</v>
@@ -19823,7 +19739,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B30" s="6">
         <v>4032</v>
@@ -19844,7 +19760,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B31" s="6">
         <v>4007</v>
@@ -19865,7 +19781,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B32" s="6">
         <v>4008</v>
@@ -19886,7 +19802,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B33" s="6">
         <v>4018</v>
@@ -19907,7 +19823,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B34" s="6">
         <v>4017</v>
@@ -19928,7 +19844,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B35" s="6">
         <v>4024</v>
@@ -19949,7 +19865,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B36" s="6">
         <v>4023</v>
@@ -19970,7 +19886,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B37" s="6">
         <v>4016</v>
@@ -19991,7 +19907,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B38" s="6">
         <v>4015</v>
@@ -20012,7 +19928,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B39" s="6">
         <v>4040</v>
@@ -20033,7 +19949,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B40" s="6">
         <v>4039</v>
@@ -20054,7 +19970,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B41" s="6">
         <v>4014</v>
@@ -20075,7 +19991,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B42" s="6">
         <v>4013</v>
@@ -20096,7 +20012,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B43" s="6">
         <v>4031</v>
@@ -20117,7 +20033,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B44" s="6">
         <v>4032</v>
@@ -20138,7 +20054,7 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B45" s="6">
         <v>4007</v>
@@ -20159,7 +20075,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B46" s="6">
         <v>4008</v>
@@ -20180,7 +20096,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B47" s="6">
         <v>4018</v>
@@ -20201,7 +20117,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B48" s="6">
         <v>4017</v>
@@ -20222,7 +20138,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B49" s="6">
         <v>4024</v>
@@ -20243,7 +20159,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B50" s="6">
         <v>4023</v>
@@ -20264,7 +20180,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B51" s="6">
         <v>4016</v>
@@ -20285,7 +20201,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B52" s="6">
         <v>4015</v>
@@ -20306,7 +20222,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B53" s="6">
         <v>4040</v>
@@ -20327,7 +20243,7 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B54" s="6">
         <v>4039</v>
@@ -20348,7 +20264,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B55" s="6">
         <v>4014</v>
@@ -20369,7 +20285,7 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B56" s="6">
         <v>4013</v>
@@ -20390,7 +20306,7 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B57" s="6">
         <v>4031</v>
@@ -20411,7 +20327,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B58" s="6">
         <v>4032</v>
@@ -20432,7 +20348,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B59" s="6">
         <v>4007</v>
@@ -20453,7 +20369,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B60" s="6">
         <v>4008</v>
@@ -20474,7 +20390,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B61" s="6">
         <v>4018</v>
@@ -20495,7 +20411,7 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B62" s="6">
         <v>4017</v>
@@ -20516,7 +20432,7 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B63" s="6">
         <v>4024</v>
@@ -20537,7 +20453,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B64" s="6">
         <v>4023</v>
@@ -20558,7 +20474,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B65" s="6">
         <v>4016</v>
@@ -20579,7 +20495,7 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B66" s="6">
         <v>4015</v>
@@ -20600,7 +20516,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B67" s="6">
         <v>4040</v>
@@ -20621,7 +20537,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B68" s="6">
         <v>4039</v>
@@ -20642,7 +20558,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B69" s="6">
         <v>4014</v>
@@ -20663,7 +20579,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B70" s="6">
         <v>4013</v>
@@ -20684,7 +20600,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B71" s="6">
         <v>4031</v>
@@ -20705,7 +20621,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B72" s="6">
         <v>4032</v>
@@ -20726,7 +20642,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B73" s="6">
         <v>4007</v>
@@ -20747,7 +20663,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B74" s="6">
         <v>4008</v>
@@ -20768,7 +20684,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B75" s="6">
         <v>4018</v>
@@ -20789,7 +20705,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B76" s="6">
         <v>4017</v>
@@ -20810,7 +20726,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B77" s="6">
         <v>4024</v>
@@ -20831,7 +20747,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B78" s="6">
         <v>4023</v>
@@ -20852,7 +20768,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B79" s="6">
         <v>4016</v>
@@ -20873,7 +20789,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B80" s="6">
         <v>4015</v>
@@ -20894,7 +20810,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B81" s="6">
         <v>4040</v>
@@ -20915,7 +20831,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B82" s="6">
         <v>4039</v>
@@ -20936,7 +20852,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B83" s="6">
         <v>4014</v>
@@ -20957,7 +20873,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B84" s="6">
         <v>4013</v>
@@ -20978,7 +20894,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B85" s="6">
         <v>4031</v>
@@ -20999,7 +20915,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B86" s="6">
         <v>4032</v>
@@ -21020,7 +20936,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B87" s="6">
         <v>4007</v>
@@ -21041,7 +20957,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B88" s="6">
         <v>4008</v>
@@ -21062,7 +20978,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B89" s="6">
         <v>4018</v>
@@ -21083,7 +20999,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B90" s="6">
         <v>4017</v>
@@ -21104,7 +21020,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B91" s="6">
         <v>4024</v>
@@ -21125,7 +21041,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B92" s="6">
         <v>4023</v>
@@ -21146,7 +21062,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B93" s="6">
         <v>4016</v>
@@ -21167,7 +21083,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B94" s="6">
         <v>4015</v>
@@ -21188,7 +21104,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B95" s="6">
         <v>4040</v>
@@ -21209,7 +21125,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B96" s="6">
         <v>4039</v>
@@ -21230,7 +21146,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B97" s="6">
         <v>4014</v>
@@ -21251,7 +21167,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B98" s="6">
         <v>4013</v>
@@ -21272,7 +21188,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B99" s="6">
         <v>4031</v>
@@ -21293,7 +21209,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B100" s="6">
         <v>4032</v>
@@ -21314,7 +21230,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B101" s="6">
         <v>4007</v>
@@ -21337,7 +21253,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B102" s="6">
         <v>4008</v>
@@ -21358,7 +21274,7 @@
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B103" s="6">
         <v>4018</v>
@@ -21379,7 +21295,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B104" s="6">
         <v>4017</v>
@@ -21400,7 +21316,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B105" s="6">
         <v>4024</v>
@@ -21421,7 +21337,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B106" s="6">
         <v>4023</v>
@@ -21442,7 +21358,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B107" s="6">
         <v>4016</v>
@@ -21463,7 +21379,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B108" s="6">
         <v>4015</v>
@@ -21484,7 +21400,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B109" s="6">
         <v>4040</v>
@@ -21505,7 +21421,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B110" s="6">
         <v>4039</v>
@@ -21523,12 +21439,12 @@
         <v>1.7835648148320615E-2</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B111" s="6">
         <v>4014</v>
@@ -21549,7 +21465,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B112" s="6">
         <v>4013</v>
@@ -21570,7 +21486,7 @@
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B113" s="6">
         <v>4031</v>
@@ -21591,7 +21507,7 @@
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B114" s="6">
         <v>4032</v>
@@ -21612,7 +21528,7 @@
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B115" s="6">
         <v>4029</v>
@@ -21633,7 +21549,7 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B116" s="6">
         <v>4030</v>
@@ -21654,7 +21570,7 @@
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B117" s="6">
         <v>4018</v>
@@ -21675,7 +21591,7 @@
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B118" s="6">
         <v>4017</v>
@@ -21696,7 +21612,7 @@
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B119" s="6">
         <v>4024</v>
@@ -21717,7 +21633,7 @@
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B120" s="6">
         <v>4023</v>
@@ -21738,7 +21654,7 @@
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B121" s="6">
         <v>4016</v>
@@ -21759,7 +21675,7 @@
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B122" s="6">
         <v>4015</v>
@@ -21780,7 +21696,7 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B123" s="6">
         <v>4014</v>
@@ -21801,7 +21717,7 @@
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B124" s="6">
         <v>4013</v>
@@ -21822,7 +21738,7 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B125" s="6">
         <v>4029</v>
@@ -21843,7 +21759,7 @@
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B126" s="6">
         <v>4030</v>
@@ -21864,7 +21780,7 @@
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B127" s="6">
         <v>4024</v>
@@ -21885,7 +21801,7 @@
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B128" s="6">
         <v>4023</v>
@@ -21903,12 +21819,12 @@
         <v>1.1585648149775807E-2</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B129" s="6">
         <v>4016</v>
@@ -21929,7 +21845,7 @@
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B130" s="6">
         <v>4015</v>
@@ -21947,12 +21863,12 @@
         <v>1.1481481480586808E-2</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B131" s="6">
         <v>4014</v>
@@ -21970,12 +21886,12 @@
         <v>8.2523148157633841E-3</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B132" s="6">
         <v>4029</v>
@@ -21993,12 +21909,12 @@
         <v>2.2418981476221234E-2</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B133" s="6">
         <v>4007</v>
@@ -22016,12 +21932,12 @@
         <v>5.7870370073942468E-4</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B134" s="6">
         <v>4030</v>
@@ -22042,7 +21958,7 @@
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B135" s="6">
         <v>4024</v>
@@ -22063,7 +21979,7 @@
     </row>
     <row r="136" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B136" s="6">
         <v>4008</v>
@@ -22084,7 +22000,7 @@
     </row>
     <row r="137" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B137" s="6">
         <v>4016</v>
@@ -22105,7 +22021,7 @@
     </row>
     <row r="138" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B138" s="6">
         <v>4023</v>
@@ -22127,7 +22043,7 @@
     </row>
     <row r="139" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B139" s="6">
         <v>4014</v>
@@ -22149,7 +22065,7 @@
     </row>
     <row r="140" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B140" s="6">
         <v>4015</v>
@@ -22171,7 +22087,7 @@
     </row>
     <row r="141" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B141" s="6">
         <v>4029</v>
@@ -22193,7 +22109,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B142" s="6">
         <v>4013</v>
@@ -22216,7 +22132,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B143" s="6">
         <v>4007</v>
@@ -22240,7 +22156,7 @@
     </row>
     <row r="144" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B144" s="6">
         <v>4030</v>
@@ -22614,8 +22530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22729,7 +22645,7 @@
     </row>
     <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B3" s="6">
         <v>4011</v>
@@ -22761,7 +22677,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B4" s="6">
         <v>4019</v>
@@ -22797,7 +22713,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B5" s="6">
         <v>4031</v>
@@ -22836,7 +22752,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B6" s="6">
         <v>4010</v>
@@ -22875,7 +22791,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B7" s="6">
         <v>4040</v>
@@ -22914,7 +22830,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B8" s="6">
         <v>4043</v>
@@ -22953,7 +22869,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B9" s="6">
         <v>4024</v>
@@ -22991,7 +22907,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B10" s="6">
         <v>4023</v>
@@ -23014,7 +22930,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B11" s="6">
         <v>4016</v>
@@ -23037,7 +22953,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B12" s="6">
         <v>4015</v>
@@ -23060,7 +22976,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B13" s="6">
         <v>4011</v>
@@ -23083,7 +22999,7 @@
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B14" s="6">
         <v>4012</v>
@@ -23106,7 +23022,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B15" s="6">
         <v>4020</v>
@@ -23129,7 +23045,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B16" s="6">
         <v>4019</v>
@@ -23152,7 +23068,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B17" s="6">
         <v>4031</v>
@@ -23175,7 +23091,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B18" s="6">
         <v>4032</v>
@@ -23198,7 +23114,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B19" s="6">
         <v>4009</v>
@@ -23221,7 +23137,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B20" s="6">
         <v>4010</v>
@@ -23244,7 +23160,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B21" s="6">
         <v>4040</v>
@@ -23267,7 +23183,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B22" s="6">
         <v>4039</v>
@@ -23290,7 +23206,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B23" s="6">
         <v>4024</v>
@@ -23313,7 +23229,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B24" s="6">
         <v>4023</v>
@@ -23336,7 +23252,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B25" s="6">
         <v>4016</v>
@@ -23359,7 +23275,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B26" s="6">
         <v>4015</v>
@@ -23382,7 +23298,7 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B27" s="6">
         <v>4011</v>
@@ -23405,7 +23321,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B28" s="6">
         <v>4012</v>
@@ -23428,7 +23344,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B29" s="6">
         <v>4020</v>
@@ -23451,7 +23367,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B30" s="6">
         <v>4019</v>
@@ -23474,7 +23390,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B31" s="6">
         <v>4031</v>
@@ -23497,7 +23413,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B32" s="6">
         <v>4032</v>
@@ -23520,7 +23436,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B33" s="6">
         <v>4009</v>
@@ -23543,7 +23459,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B34" s="6">
         <v>4010</v>
@@ -23566,7 +23482,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B35" s="6">
         <v>4040</v>
@@ -23589,7 +23505,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B36" s="6">
         <v>4039</v>
@@ -23612,7 +23528,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B37" s="6">
         <v>4024</v>
@@ -23635,7 +23551,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B38" s="6">
         <v>4023</v>
@@ -23658,7 +23574,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B39" s="6">
         <v>4016</v>
@@ -23681,7 +23597,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B40" s="6">
         <v>4015</v>
@@ -23704,7 +23620,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B41" s="6">
         <v>4011</v>
@@ -23727,7 +23643,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B42" s="6">
         <v>4012</v>
@@ -23750,7 +23666,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B43" s="6">
         <v>4020</v>
@@ -23773,7 +23689,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B44" s="6">
         <v>4019</v>
@@ -23796,7 +23712,7 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B45" s="6">
         <v>4031</v>
@@ -23819,7 +23735,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B46" s="6">
         <v>4032</v>
@@ -23842,7 +23758,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B47" s="6">
         <v>4009</v>
@@ -23865,7 +23781,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B48" s="6">
         <v>4010</v>
@@ -23888,7 +23804,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B49" s="6">
         <v>4040</v>
@@ -23911,7 +23827,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B50" s="6">
         <v>4039</v>
@@ -23934,7 +23850,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B51" s="6">
         <v>4024</v>
@@ -23957,7 +23873,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B52" s="6">
         <v>4023</v>
@@ -23980,7 +23896,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B53" s="6">
         <v>4016</v>
@@ -24003,7 +23919,7 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B54" s="6">
         <v>4015</v>
@@ -24026,7 +23942,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B55" s="6">
         <v>4011</v>
@@ -24049,7 +23965,7 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B56" s="6">
         <v>4012</v>
@@ -24072,7 +23988,7 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B57" s="6">
         <v>4020</v>
@@ -24095,7 +24011,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B58" s="6">
         <v>4019</v>
@@ -24118,7 +24034,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B59" s="6">
         <v>4031</v>
@@ -24141,7 +24057,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B60" s="6">
         <v>4032</v>
@@ -24164,7 +24080,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B61" s="6">
         <v>4009</v>
@@ -24187,7 +24103,7 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B62" s="6">
         <v>4010</v>
@@ -24210,7 +24126,7 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B63" s="6">
         <v>4040</v>
@@ -24233,7 +24149,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B64" s="6">
         <v>4039</v>
@@ -24256,7 +24172,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B65" s="6">
         <v>4024</v>
@@ -24279,7 +24195,7 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B66" s="6">
         <v>4023</v>
@@ -24302,7 +24218,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B67" s="6">
         <v>4016</v>
@@ -24325,7 +24241,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B68" s="6">
         <v>4015</v>
@@ -24348,7 +24264,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B69" s="6">
         <v>4011</v>
@@ -24371,7 +24287,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B70" s="6">
         <v>4012</v>
@@ -24394,7 +24310,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B71" s="6">
         <v>4020</v>
@@ -24417,7 +24333,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B72" s="6">
         <v>4019</v>
@@ -24440,7 +24356,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B73" s="6">
         <v>4031</v>
@@ -24463,7 +24379,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B74" s="6">
         <v>4032</v>
@@ -24486,7 +24402,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B75" s="6">
         <v>4009</v>
@@ -24509,7 +24425,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B76" s="6">
         <v>4010</v>
@@ -24532,7 +24448,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B77" s="6">
         <v>4040</v>
@@ -24555,7 +24471,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B78" s="6">
         <v>4039</v>
@@ -24578,7 +24494,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B79" s="6">
         <v>4024</v>
@@ -24601,7 +24517,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B80" s="6">
         <v>4023</v>
@@ -24624,7 +24540,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B81" s="6">
         <v>4016</v>
@@ -24647,7 +24563,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B82" s="6">
         <v>4015</v>
@@ -24670,7 +24586,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B83" s="6">
         <v>4011</v>
@@ -24693,7 +24609,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B84" s="6">
         <v>4012</v>
@@ -24716,7 +24632,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B85" s="6">
         <v>4020</v>
@@ -24739,7 +24655,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B86" s="6">
         <v>4019</v>
@@ -24762,7 +24678,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B87" s="6">
         <v>4031</v>
@@ -24785,7 +24701,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B88" s="6">
         <v>4032</v>
@@ -24808,7 +24724,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B89" s="6">
         <v>4009</v>
@@ -24831,7 +24747,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B90" s="6">
         <v>4010</v>
@@ -24854,7 +24770,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B91" s="6">
         <v>4039</v>
@@ -24877,7 +24793,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B92" s="6">
         <v>4024</v>
@@ -24900,7 +24816,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B93" s="6">
         <v>4023</v>
@@ -24923,7 +24839,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B94" s="6">
         <v>4016</v>
@@ -24946,7 +24862,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B95" s="6">
         <v>4015</v>
@@ -24969,7 +24885,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B96" s="6">
         <v>4011</v>
@@ -24992,7 +24908,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B97" s="6">
         <v>4012</v>
@@ -25015,7 +24931,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B98" s="6">
         <v>4020</v>
@@ -25038,7 +24954,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B99" s="6">
         <v>4019</v>
@@ -25061,7 +24977,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B100" s="6">
         <v>4031</v>
@@ -25084,7 +25000,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B101" s="6">
         <v>4032</v>
@@ -25107,7 +25023,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B102" s="6">
         <v>4009</v>
@@ -25130,7 +25046,7 @@
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B103" s="6">
         <v>4010</v>
@@ -25153,7 +25069,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B104" s="6">
         <v>4044</v>
@@ -25176,7 +25092,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B105" s="6">
         <v>4043</v>
@@ -25199,7 +25115,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B106" s="6">
         <v>4024</v>
@@ -25222,7 +25138,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B107" s="6">
         <v>4023</v>
@@ -25245,7 +25161,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B108" s="6">
         <v>4016</v>
@@ -25268,7 +25184,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B109" s="6">
         <v>4015</v>
@@ -25291,7 +25207,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B110" s="6">
         <v>4011</v>
@@ -25314,7 +25230,7 @@
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B111" s="6">
         <v>4012</v>
@@ -25337,7 +25253,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B112" s="6">
         <v>4020</v>
@@ -25360,7 +25276,7 @@
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B113" s="6">
         <v>4019</v>
@@ -25383,7 +25299,7 @@
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B114" s="6">
         <v>4031</v>
@@ -25406,7 +25322,7 @@
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B115" s="6">
         <v>4032</v>
@@ -25429,7 +25345,7 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B116" s="6">
         <v>4009</v>
@@ -25452,7 +25368,7 @@
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B117" s="6">
         <v>4010</v>
@@ -25475,7 +25391,7 @@
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B118" s="6">
         <v>4044</v>
@@ -25498,7 +25414,7 @@
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B119" s="6">
         <v>4043</v>
@@ -25521,7 +25437,7 @@
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B120" s="6">
         <v>4024</v>
@@ -25544,7 +25460,7 @@
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B121" s="6">
         <v>4023</v>
@@ -25567,7 +25483,7 @@
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B122" s="6">
         <v>4011</v>
@@ -25590,7 +25506,7 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B123" s="6">
         <v>4012</v>
@@ -25614,7 +25530,7 @@
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B124" s="6">
         <v>4029</v>
@@ -25637,7 +25553,7 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B125" s="6">
         <v>4030</v>
@@ -25662,7 +25578,7 @@
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B126" s="6">
         <v>4044</v>
@@ -25685,7 +25601,7 @@
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B127" s="6">
         <v>4043</v>
@@ -25708,7 +25624,7 @@
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B128" s="6">
         <v>4024</v>
@@ -25731,7 +25647,7 @@
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B129" s="6">
         <v>4023</v>
@@ -25751,12 +25667,12 @@
         <v>5.7997685187729076E-2</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B130" s="6">
         <v>4011</v>
@@ -25779,7 +25695,7 @@
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B131" s="6">
         <v>4012</v>
@@ -25802,7 +25718,7 @@
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B132" s="6">
         <v>4031</v>
@@ -25822,12 +25738,12 @@
         <v>5.0937500003783498E-2</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B133" s="6">
         <v>4044</v>
@@ -25846,12 +25762,12 @@
         <v>4.0034722216660157E-2</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B134" s="6">
         <v>4024</v>
@@ -25871,12 +25787,12 @@
         <v>2.5023148147738539E-2</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B135" s="6">
         <v>4011</v>
@@ -26206,18 +26122,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B120">
-    <cfRule type="expression" dxfId="6" priority="240">
+    <cfRule type="expression" dxfId="14" priority="240">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="241">
+    <cfRule type="expression" dxfId="13" priority="241">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B133">
-    <cfRule type="expression" dxfId="2" priority="256">
+    <cfRule type="expression" dxfId="12" priority="256">
       <formula>$P142&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="257">
+    <cfRule type="expression" dxfId="11" priority="257">
       <formula>$O142&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27837,7 +27753,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C10" s="61">
         <f>C76</f>
@@ -27846,7 +27762,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="54" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C11" s="61">
         <f>C84</f>
@@ -27855,7 +27771,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="54" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C12" s="61">
         <f>C92</f>
@@ -27864,7 +27780,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C13" s="61">
         <f>C100</f>
